--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -371,10 +371,13 @@
     <t>Uriel pagó</t>
   </si>
   <si>
-    <t>Agua sabor</t>
+    <t>Efectivo 10</t>
   </si>
   <si>
-    <t>Efectivo 10</t>
+    <t>Agua sabor;Chocolate</t>
+  </si>
+  <si>
+    <t>Quesadillas</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:BE964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1564,7 @@
       </c>
       <c r="V5" s="43">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="W5" s="52">
         <v>125</v>
@@ -1574,17 +1577,23 @@
       </c>
       <c r="Z5" s="53">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
+        <v>67</v>
+      </c>
+      <c r="AA5" s="59">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="59" t="s">
+        <v>117</v>
+      </c>
       <c r="AC5" s="59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD5" s="59">
         <v>17</v>
       </c>
-      <c r="AE5" s="59"/>
+      <c r="AE5" s="59">
+        <v>10</v>
+      </c>
       <c r="AF5" s="59"/>
       <c r="AG5" s="59"/>
       <c r="AH5" s="59"/>
@@ -1637,7 +1646,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -3600,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="K28" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L28" s="82">
         <v>0</v>
@@ -3695,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" ref="L28:L30" si="8">J29-K29</f>
+        <f t="shared" ref="L29:L30" si="8">J29-K29</f>
         <v>140</v>
       </c>
       <c r="N29" s="59"/>

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t>Quesadillas</t>
+  </si>
+  <si>
+    <t>Niño Cuarto</t>
+  </si>
+  <si>
+    <t>Comida china</t>
+  </si>
+  <si>
+    <t>Ajuste de Uber</t>
+  </si>
+  <si>
+    <t>???????</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,11 +1236,11 @@
       </c>
       <c r="E2" s="98">
         <f>L3-C2</f>
-        <v>-5251.89</v>
+        <v>-5351.09</v>
       </c>
       <c r="F2" s="99">
         <f>L3-D2</f>
-        <v>-66.890000000000327</v>
+        <v>-166.09000000000015</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1355,7 +1367,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(D2,(E11:E501),(K11:K497)))-(SUM((D11:D501),(C11:C501)))</f>
-        <v>4450.1099999999997</v>
+        <v>4350.91</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1419,11 +1431,11 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS3" s="59">
-        <f t="shared" ref="AS3:AS16" si="2">(AP3*6)+(AR3*5)</f>
-        <v>11</v>
+        <f>(AP3*6)+(AQ3*8)+(AR3*5)</f>
+        <v>16</v>
       </c>
       <c r="AT3" s="59">
         <v>0</v>
@@ -1458,7 +1470,7 @@
       </c>
       <c r="N4" s="83">
         <f>L3+L9</f>
-        <v>28609.11</v>
+        <v>28509.91</v>
       </c>
       <c r="S4" s="49">
         <v>42827</v>
@@ -1470,7 +1482,7 @@
         <v>112</v>
       </c>
       <c r="V4" s="43">
-        <f t="shared" ref="V4:V67" si="3">(SUM(W4,X4))-Z4</f>
+        <f t="shared" ref="V4:V67" si="2">(SUM(W4,X4))-Z4</f>
         <v>0</v>
       </c>
       <c r="W4" s="52">
@@ -1513,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AS4:AS67" si="3">(AP4*6)+(AQ4*8)+(AR4*5)</f>
         <v>0</v>
       </c>
       <c r="AT4" s="59">
@@ -1532,7 +1544,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1563,8 +1575,8 @@
         <v>113</v>
       </c>
       <c r="V5" s="43">
-        <f t="shared" si="3"/>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>32.5</v>
       </c>
       <c r="W5" s="52">
         <v>125</v>
@@ -1577,7 +1589,7 @@
       </c>
       <c r="Z5" s="53">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>102.5</v>
       </c>
       <c r="AA5" s="59">
         <v>40</v>
@@ -1604,23 +1616,23 @@
       <c r="AM5" s="59"/>
       <c r="AN5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS5" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="AT5" s="59">
         <v>0</v>
@@ -1630,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AV5" s="78">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AX5" s="64"/>
       <c r="AY5" s="64"/>
@@ -1646,7 +1658,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>573</v>
+        <v>527.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -1656,19 +1668,27 @@
       <c r="T6" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="U6" s="69"/>
+      <c r="U6" s="69" t="s">
+        <v>118</v>
+      </c>
       <c r="V6" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="52"/>
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="W6" s="52">
+        <v>75</v>
+      </c>
       <c r="X6" s="52"/>
       <c r="Z6" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="78"/>
+        <v>85</v>
+      </c>
+      <c r="AA6" s="59">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="78" t="s">
+        <v>119</v>
+      </c>
       <c r="AC6" s="59"/>
       <c r="AD6" s="59"/>
       <c r="AE6" s="59"/>
@@ -1682,23 +1702,23 @@
       <c r="AM6" s="59"/>
       <c r="AN6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="AT6" s="59">
         <v>0</v>
@@ -1708,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="74"/>
       <c r="AY6" s="64"/>
@@ -1731,7 +1751,7 @@
       </c>
       <c r="U7" s="51"/>
       <c r="V7" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="52"/>
@@ -1770,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT7" s="59">
@@ -1795,7 +1815,7 @@
       </c>
       <c r="U8" s="51"/>
       <c r="V8" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="52"/>
@@ -1834,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT8" s="59">
@@ -1883,7 +1903,7 @@
       </c>
       <c r="U9" s="51"/>
       <c r="V9" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="52"/>
@@ -1922,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT9" s="59">
@@ -1991,7 +2011,7 @@
       </c>
       <c r="U10" s="51"/>
       <c r="V10" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="52"/>
@@ -2030,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT10" s="59">
@@ -2096,7 +2116,7 @@
       </c>
       <c r="U11" s="51"/>
       <c r="V11" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="52"/>
@@ -2135,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT11" s="59">
@@ -2150,10 +2170,16 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="87">
+        <v>42829</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>120</v>
+      </c>
       <c r="C12" s="59"/>
-      <c r="D12" s="86"/>
+      <c r="D12" s="86">
+        <v>32</v>
+      </c>
       <c r="E12" s="59"/>
       <c r="F12" s="59"/>
       <c r="G12" s="59" t="s">
@@ -2187,7 +2213,7 @@
       </c>
       <c r="U12" s="51"/>
       <c r="V12" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="52"/>
@@ -2226,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT12" s="59">
@@ -2241,10 +2267,16 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="60">
+        <v>42829</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>121</v>
+      </c>
       <c r="C13" s="88"/>
-      <c r="D13" s="86"/>
+      <c r="D13" s="86">
+        <v>67.2</v>
+      </c>
       <c r="E13" s="89"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
@@ -2276,7 +2308,7 @@
       </c>
       <c r="U13" s="51"/>
       <c r="V13" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="52"/>
@@ -2315,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT13" s="59">
@@ -2365,7 +2397,7 @@
       </c>
       <c r="U14" s="51"/>
       <c r="V14" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="52"/>
@@ -2404,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT14" s="59">
@@ -2454,7 +2486,7 @@
       </c>
       <c r="U15" s="69"/>
       <c r="V15" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="52"/>
@@ -2493,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT15" s="59">
@@ -2543,7 +2575,7 @@
       </c>
       <c r="U16" s="51"/>
       <c r="V16" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="52"/>
@@ -2582,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT16" s="59">
@@ -2632,7 +2664,7 @@
       </c>
       <c r="U17" s="51"/>
       <c r="V17" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="52"/>
@@ -2671,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="59">
-        <f>(AP17*8)+(AR17*5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT17" s="59">
@@ -2723,7 +2755,7 @@
       </c>
       <c r="U18" s="51"/>
       <c r="V18" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="52"/>
@@ -2762,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="59">
-        <f>(AP18*8)+(AR18*5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT18" s="59">
@@ -2812,7 +2844,7 @@
       </c>
       <c r="U19" s="51"/>
       <c r="V19" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="52"/>
@@ -2851,8 +2883,8 @@
         <v>0</v>
       </c>
       <c r="AS19" s="59">
-        <f>(AP19*8)+(AR19*5)-1</f>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AT19" s="59">
         <v>0</v>
@@ -2902,7 +2934,7 @@
       </c>
       <c r="U20" s="51"/>
       <c r="V20" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="W20" s="52"/>
@@ -2940,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="59">
-        <f>(AP20*8)+(AR20*5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT20" s="59">
@@ -2990,7 +3022,7 @@
       </c>
       <c r="U21" s="51"/>
       <c r="V21" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="52"/>
@@ -3029,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="59">
-        <f>(AP21*6)+(AQ21*8)+(AR21*5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT21" s="59">
@@ -3081,7 +3113,7 @@
       </c>
       <c r="U22" s="51"/>
       <c r="V22" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="52"/>
@@ -3120,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="59">
-        <f t="shared" ref="AS22:AS85" si="7">(AP22*6)+(AQ22*8)+(AR22*5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT22" s="59">
@@ -3172,7 +3204,7 @@
       </c>
       <c r="U23" s="51"/>
       <c r="V23" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="71"/>
@@ -3211,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT23" s="59">
@@ -3264,7 +3296,7 @@
       </c>
       <c r="U24" s="51"/>
       <c r="V24" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="52"/>
@@ -3303,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT24" s="59">
@@ -3355,7 +3387,7 @@
       </c>
       <c r="U25" s="51"/>
       <c r="V25" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="52"/>
@@ -3394,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT25" s="59">
@@ -3445,7 +3477,7 @@
       </c>
       <c r="U26" s="51"/>
       <c r="V26" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="52"/>
@@ -3484,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT26" s="59">
@@ -3536,7 +3568,7 @@
       </c>
       <c r="U27" s="51"/>
       <c r="V27" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="52"/>
@@ -3575,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT27" s="59">
@@ -3628,7 +3660,7 @@
       </c>
       <c r="U28" s="51"/>
       <c r="V28" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="52"/>
@@ -3667,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT28" s="59">
@@ -3704,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" ref="L29:L30" si="8">J29-K29</f>
+        <f t="shared" ref="L29:L30" si="7">J29-K29</f>
         <v>140</v>
       </c>
       <c r="N29" s="59"/>
@@ -3719,7 +3751,7 @@
       </c>
       <c r="U29" s="51"/>
       <c r="V29" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="52"/>
@@ -3758,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT29" s="59">
@@ -3795,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="N30" s="59"/>
@@ -3810,7 +3842,7 @@
       </c>
       <c r="U30" s="51"/>
       <c r="V30" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="52"/>
@@ -3849,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT30" s="59">
@@ -3888,7 +3920,7 @@
       </c>
       <c r="U31" s="51"/>
       <c r="V31" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="52"/>
@@ -3927,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT31" s="59">
@@ -3966,7 +3998,7 @@
       </c>
       <c r="U32" s="51"/>
       <c r="V32" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="52"/>
@@ -4005,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT32" s="59">
@@ -4044,7 +4076,7 @@
       </c>
       <c r="U33" s="51"/>
       <c r="V33" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="52"/>
@@ -4083,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT33" s="59">
@@ -4122,7 +4154,7 @@
       </c>
       <c r="U34" s="51"/>
       <c r="V34" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W34" s="52"/>
@@ -4161,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT34" s="59">
@@ -4200,7 +4232,7 @@
       </c>
       <c r="U35" s="51"/>
       <c r="V35" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W35" s="52"/>
@@ -4239,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT35" s="59">
@@ -4278,7 +4310,7 @@
       </c>
       <c r="U36" s="51"/>
       <c r="V36" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W36" s="52"/>
@@ -4317,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT36" s="59">
@@ -4356,7 +4388,7 @@
       </c>
       <c r="U37" s="51"/>
       <c r="V37" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W37" s="52"/>
@@ -4395,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT37" s="59">
@@ -4434,7 +4466,7 @@
       </c>
       <c r="U38" s="51"/>
       <c r="V38" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W38" s="52"/>
@@ -4473,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT38" s="59">
@@ -4512,7 +4544,7 @@
       </c>
       <c r="U39" s="51"/>
       <c r="V39" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W39" s="52"/>
@@ -4551,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT39" s="59">
@@ -4587,7 +4619,7 @@
       </c>
       <c r="U40" s="51"/>
       <c r="V40" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W40" s="52"/>
@@ -4626,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT40" s="59">
@@ -4662,7 +4694,7 @@
       </c>
       <c r="U41" s="51"/>
       <c r="V41" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W41" s="52"/>
@@ -4701,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT41" s="59">
@@ -4737,7 +4769,7 @@
       </c>
       <c r="U42" s="51"/>
       <c r="V42" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W42" s="52"/>
@@ -4776,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="AS42" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT42" s="59">
@@ -4812,7 +4844,7 @@
       </c>
       <c r="U43" s="51"/>
       <c r="V43" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W43" s="52"/>
@@ -4851,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT43" s="59">
@@ -4887,7 +4919,7 @@
       </c>
       <c r="U44" s="51"/>
       <c r="V44" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W44" s="52"/>
@@ -4926,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT44" s="59">
@@ -4962,7 +4994,7 @@
       </c>
       <c r="U45" s="84"/>
       <c r="V45" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W45" s="52"/>
@@ -5001,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="AS45" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT45" s="59">
@@ -5037,7 +5069,7 @@
       </c>
       <c r="U46" s="51"/>
       <c r="V46" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W46" s="52"/>
@@ -5075,8 +5107,8 @@
       <c r="AR46">
         <v>0</v>
       </c>
-      <c r="AS46">
-        <f t="shared" si="7"/>
+      <c r="AS46" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT46" s="59">
@@ -5113,7 +5145,7 @@
       </c>
       <c r="U47" s="51"/>
       <c r="V47" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W47" s="52"/>
@@ -5151,8 +5183,8 @@
       <c r="AR47">
         <v>0</v>
       </c>
-      <c r="AS47">
-        <f t="shared" si="7"/>
+      <c r="AS47" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT47" s="59">
@@ -5188,7 +5220,7 @@
       </c>
       <c r="U48" s="51"/>
       <c r="V48" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W48" s="52"/>
@@ -5226,8 +5258,8 @@
       <c r="AR48">
         <v>0</v>
       </c>
-      <c r="AS48">
-        <f t="shared" si="7"/>
+      <c r="AS48" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT48" s="59">
@@ -5263,7 +5295,7 @@
       </c>
       <c r="U49" s="51"/>
       <c r="V49" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W49" s="52"/>
@@ -5301,8 +5333,8 @@
       <c r="AR49">
         <v>0</v>
       </c>
-      <c r="AS49">
-        <f t="shared" si="7"/>
+      <c r="AS49" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT49" s="59">
@@ -5338,7 +5370,7 @@
       </c>
       <c r="U50" s="51"/>
       <c r="V50" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W50" s="52"/>
@@ -5376,8 +5408,8 @@
       <c r="AR50">
         <v>0</v>
       </c>
-      <c r="AS50">
-        <f t="shared" si="7"/>
+      <c r="AS50" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT50" s="59">
@@ -5413,7 +5445,7 @@
       </c>
       <c r="U51" s="51"/>
       <c r="V51" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W51" s="52"/>
@@ -5451,8 +5483,8 @@
       <c r="AR51">
         <v>0</v>
       </c>
-      <c r="AS51">
-        <f t="shared" si="7"/>
+      <c r="AS51" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT51" s="59">
@@ -5488,7 +5520,7 @@
       </c>
       <c r="U52" s="51"/>
       <c r="V52" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W52" s="52"/>
@@ -5526,8 +5558,8 @@
       <c r="AR52">
         <v>0</v>
       </c>
-      <c r="AS52">
-        <f t="shared" si="7"/>
+      <c r="AS52" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT52" s="59">
@@ -5563,7 +5595,7 @@
       </c>
       <c r="U53" s="51"/>
       <c r="V53" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W53" s="52"/>
@@ -5601,8 +5633,8 @@
       <c r="AR53">
         <v>0</v>
       </c>
-      <c r="AS53">
-        <f t="shared" si="7"/>
+      <c r="AS53" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT53" s="59">
@@ -5638,7 +5670,7 @@
       </c>
       <c r="U54" s="51"/>
       <c r="V54" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W54" s="52"/>
@@ -5676,8 +5708,8 @@
       <c r="AR54">
         <v>0</v>
       </c>
-      <c r="AS54">
-        <f t="shared" si="7"/>
+      <c r="AS54" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT54" s="59">
@@ -5713,7 +5745,7 @@
       </c>
       <c r="U55" s="51"/>
       <c r="V55" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W55" s="52"/>
@@ -5748,8 +5780,8 @@
       <c r="AQ55">
         <v>0</v>
       </c>
-      <c r="AS55">
-        <f t="shared" si="7"/>
+      <c r="AS55" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT55" s="59">
@@ -5785,7 +5817,7 @@
       </c>
       <c r="U56" s="51"/>
       <c r="V56" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W56" s="52"/>
@@ -5820,8 +5852,8 @@
       <c r="AQ56">
         <v>0</v>
       </c>
-      <c r="AS56">
-        <f t="shared" si="7"/>
+      <c r="AS56" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT56" s="59">
@@ -5857,7 +5889,7 @@
       </c>
       <c r="U57" s="51"/>
       <c r="V57" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W57" s="52"/>
@@ -5889,8 +5921,8 @@
       <c r="AP57">
         <v>0</v>
       </c>
-      <c r="AS57">
-        <f t="shared" si="7"/>
+      <c r="AS57" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT57" s="59">
@@ -5926,7 +5958,7 @@
       </c>
       <c r="U58" s="51"/>
       <c r="V58" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W58" s="52"/>
@@ -5958,8 +5990,8 @@
       <c r="AP58">
         <v>0</v>
       </c>
-      <c r="AS58">
-        <f t="shared" si="7"/>
+      <c r="AS58" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT58" s="59">
@@ -5995,7 +6027,7 @@
       </c>
       <c r="U59" s="51"/>
       <c r="V59" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W59" s="52"/>
@@ -6027,8 +6059,8 @@
       <c r="AP59">
         <v>0</v>
       </c>
-      <c r="AS59">
-        <f t="shared" si="7"/>
+      <c r="AS59" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT59" s="59">
@@ -6064,7 +6096,7 @@
       </c>
       <c r="U60" s="51"/>
       <c r="V60" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W60" s="52"/>
@@ -6096,8 +6128,8 @@
       <c r="AP60">
         <v>0</v>
       </c>
-      <c r="AS60">
-        <f t="shared" si="7"/>
+      <c r="AS60" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT60" s="59">
@@ -6133,7 +6165,7 @@
       </c>
       <c r="U61" s="51"/>
       <c r="V61" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W61" s="52"/>
@@ -6162,8 +6194,8 @@
       <c r="AO61">
         <v>0</v>
       </c>
-      <c r="AS61">
-        <f t="shared" si="7"/>
+      <c r="AS61" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT61" s="59">
@@ -6199,7 +6231,7 @@
       </c>
       <c r="U62" s="51"/>
       <c r="V62" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W62" s="52"/>
@@ -6228,8 +6260,8 @@
       <c r="AO62">
         <v>0</v>
       </c>
-      <c r="AS62">
-        <f t="shared" si="7"/>
+      <c r="AS62" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT62" s="59">
@@ -6265,7 +6297,7 @@
       </c>
       <c r="U63" s="51"/>
       <c r="V63" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W63" s="52"/>
@@ -6294,8 +6326,8 @@
       <c r="AO63">
         <v>0</v>
       </c>
-      <c r="AS63">
-        <f t="shared" si="7"/>
+      <c r="AS63" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT63" s="59">
@@ -6329,7 +6361,7 @@
       <c r="T64" s="50"/>
       <c r="U64" s="51"/>
       <c r="V64" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W64" s="52"/>
@@ -6358,8 +6390,8 @@
       <c r="AO64">
         <v>0</v>
       </c>
-      <c r="AS64">
-        <f t="shared" si="7"/>
+      <c r="AS64" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT64" s="59">
@@ -6393,7 +6425,7 @@
       <c r="T65" s="50"/>
       <c r="U65" s="51"/>
       <c r="V65" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W65" s="52"/>
@@ -6422,8 +6454,8 @@
       <c r="AO65">
         <v>0</v>
       </c>
-      <c r="AS65">
-        <f t="shared" si="7"/>
+      <c r="AS65" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT65" s="59">
@@ -6457,7 +6489,7 @@
       <c r="T66" s="50"/>
       <c r="U66" s="51"/>
       <c r="V66" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W66" s="52"/>
@@ -6486,8 +6518,8 @@
       <c r="AO66">
         <v>0</v>
       </c>
-      <c r="AS66">
-        <f t="shared" si="7"/>
+      <c r="AS66" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT66" s="59">
@@ -6521,13 +6553,13 @@
       <c r="T67" s="50"/>
       <c r="U67" s="51"/>
       <c r="V67" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W67" s="52"/>
       <c r="X67" s="52"/>
       <c r="Z67" s="53">
-        <f t="shared" ref="Z67:Z130" si="9">SUM(AA67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67)</f>
+        <f t="shared" ref="Z67:Z130" si="8">SUM(AA67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67)</f>
         <v>0</v>
       </c>
       <c r="AA67" s="59"/>
@@ -6550,8 +6582,8 @@
       <c r="AO67">
         <v>0</v>
       </c>
-      <c r="AS67">
-        <f t="shared" si="7"/>
+      <c r="AS67" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT67" s="59">
@@ -6582,13 +6614,13 @@
       <c r="T68" s="50"/>
       <c r="U68" s="51"/>
       <c r="V68" s="43">
-        <f t="shared" ref="V68:V131" si="10">(SUM(W68,X68))-Z68</f>
+        <f t="shared" ref="V68:V131" si="9">(SUM(W68,X68))-Z68</f>
         <v>0</v>
       </c>
       <c r="W68" s="52"/>
       <c r="X68" s="52"/>
       <c r="Z68" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA68" s="59"/>
@@ -6611,8 +6643,8 @@
       <c r="AO68">
         <v>0</v>
       </c>
-      <c r="AS68">
-        <f t="shared" si="7"/>
+      <c r="AS68" s="59">
+        <f t="shared" ref="AS68:AS131" si="10">(AP68*6)+(AQ68*8)+(AR68*5)</f>
         <v>0</v>
       </c>
       <c r="AT68" s="59">
@@ -6643,13 +6675,13 @@
       <c r="T69" s="50"/>
       <c r="U69" s="51"/>
       <c r="V69" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W69" s="52"/>
       <c r="X69" s="52"/>
       <c r="Z69" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA69" s="59"/>
@@ -6672,8 +6704,8 @@
       <c r="AO69">
         <v>0</v>
       </c>
-      <c r="AS69">
-        <f t="shared" si="7"/>
+      <c r="AS69" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT69" s="59">
@@ -6704,13 +6736,13 @@
       <c r="T70" s="50"/>
       <c r="U70" s="51"/>
       <c r="V70" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W70" s="52"/>
       <c r="X70" s="52"/>
       <c r="Z70" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA70" s="59"/>
@@ -6733,8 +6765,8 @@
       <c r="AO70">
         <v>0</v>
       </c>
-      <c r="AS70">
-        <f t="shared" si="7"/>
+      <c r="AS70" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT70" s="59">
@@ -6765,13 +6797,13 @@
       <c r="T71" s="50"/>
       <c r="U71" s="51"/>
       <c r="V71" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W71" s="52"/>
       <c r="X71" s="52"/>
       <c r="Z71" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA71" s="59"/>
@@ -6794,8 +6826,8 @@
       <c r="AO71">
         <v>0</v>
       </c>
-      <c r="AS71">
-        <f t="shared" si="7"/>
+      <c r="AS71" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT71" s="59">
@@ -6826,13 +6858,13 @@
       <c r="T72" s="50"/>
       <c r="U72" s="51"/>
       <c r="V72" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W72" s="52"/>
       <c r="X72" s="52"/>
       <c r="Z72" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA72" s="59"/>
@@ -6855,8 +6887,8 @@
       <c r="AO72">
         <v>0</v>
       </c>
-      <c r="AS72">
-        <f t="shared" si="7"/>
+      <c r="AS72" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT72" s="59">
@@ -6887,13 +6919,13 @@
       <c r="T73" s="50"/>
       <c r="U73" s="51"/>
       <c r="V73" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W73" s="52"/>
       <c r="X73" s="52"/>
       <c r="Z73" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA73" s="59"/>
@@ -6916,8 +6948,8 @@
       <c r="AO73">
         <v>0</v>
       </c>
-      <c r="AS73">
-        <f t="shared" si="7"/>
+      <c r="AS73" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT73" s="59">
@@ -6948,13 +6980,13 @@
       <c r="T74" s="50"/>
       <c r="U74" s="51"/>
       <c r="V74" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W74" s="52"/>
       <c r="X74" s="52"/>
       <c r="Z74" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA74" s="59"/>
@@ -6977,8 +7009,8 @@
       <c r="AO74">
         <v>0</v>
       </c>
-      <c r="AS74">
-        <f t="shared" si="7"/>
+      <c r="AS74" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT74" s="59">
@@ -7009,13 +7041,13 @@
       <c r="T75" s="50"/>
       <c r="U75" s="51"/>
       <c r="V75" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W75" s="52"/>
       <c r="X75" s="52"/>
       <c r="Z75" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA75" s="59"/>
@@ -7038,8 +7070,8 @@
       <c r="AO75">
         <v>0</v>
       </c>
-      <c r="AS75">
-        <f t="shared" si="7"/>
+      <c r="AS75" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT75" s="59">
@@ -7070,13 +7102,13 @@
       <c r="T76" s="50"/>
       <c r="U76" s="51"/>
       <c r="V76" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W76" s="52"/>
       <c r="X76" s="52"/>
       <c r="Z76" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA76" s="59"/>
@@ -7099,8 +7131,8 @@
       <c r="AO76">
         <v>0</v>
       </c>
-      <c r="AS76">
-        <f t="shared" si="7"/>
+      <c r="AS76" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT76" s="59">
@@ -7131,13 +7163,13 @@
       <c r="T77" s="50"/>
       <c r="U77" s="51"/>
       <c r="V77" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W77" s="52"/>
       <c r="X77" s="52"/>
       <c r="Z77" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA77" s="59"/>
@@ -7160,8 +7192,8 @@
       <c r="AO77">
         <v>0</v>
       </c>
-      <c r="AS77">
-        <f t="shared" si="7"/>
+      <c r="AS77" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT77" s="59">
@@ -7192,13 +7224,13 @@
       <c r="T78" s="50"/>
       <c r="U78" s="51"/>
       <c r="V78" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W78" s="52"/>
       <c r="X78" s="52"/>
       <c r="Z78" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD78">
@@ -7238,8 +7270,8 @@
       <c r="AO78">
         <v>0</v>
       </c>
-      <c r="AS78">
-        <f t="shared" si="7"/>
+      <c r="AS78" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT78" s="59">
@@ -7270,13 +7302,13 @@
       <c r="T79" s="50"/>
       <c r="U79" s="51"/>
       <c r="V79" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W79" s="52"/>
       <c r="X79" s="52"/>
       <c r="Z79" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD79">
@@ -7316,8 +7348,8 @@
       <c r="AO79">
         <v>0</v>
       </c>
-      <c r="AS79">
-        <f t="shared" si="7"/>
+      <c r="AS79" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT79" s="59">
@@ -7348,13 +7380,13 @@
       <c r="T80" s="50"/>
       <c r="U80" s="51"/>
       <c r="V80" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W80" s="52"/>
       <c r="X80" s="52"/>
       <c r="Z80" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD80">
@@ -7394,8 +7426,8 @@
       <c r="AO80">
         <v>0</v>
       </c>
-      <c r="AS80">
-        <f t="shared" si="7"/>
+      <c r="AS80" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT80" s="59">
@@ -7426,13 +7458,13 @@
       <c r="T81" s="50"/>
       <c r="U81" s="51"/>
       <c r="V81" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W81" s="52"/>
       <c r="X81" s="52"/>
       <c r="Z81" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD81">
@@ -7472,8 +7504,8 @@
       <c r="AO81">
         <v>0</v>
       </c>
-      <c r="AS81">
-        <f t="shared" si="7"/>
+      <c r="AS81" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT81" s="59">
@@ -7504,13 +7536,13 @@
       <c r="T82" s="50"/>
       <c r="U82" s="51"/>
       <c r="V82" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W82" s="52"/>
       <c r="X82" s="52"/>
       <c r="Z82" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD82">
@@ -7550,8 +7582,8 @@
       <c r="AO82">
         <v>0</v>
       </c>
-      <c r="AS82">
-        <f t="shared" si="7"/>
+      <c r="AS82" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT82" s="59">
@@ -7582,13 +7614,13 @@
       <c r="T83" s="50"/>
       <c r="U83" s="51"/>
       <c r="V83" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W83" s="52"/>
       <c r="X83" s="52"/>
       <c r="Z83" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD83">
@@ -7628,8 +7660,8 @@
       <c r="AO83">
         <v>0</v>
       </c>
-      <c r="AS83">
-        <f t="shared" si="7"/>
+      <c r="AS83" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT83" s="59">
@@ -7660,13 +7692,13 @@
       <c r="T84" s="50"/>
       <c r="U84" s="51"/>
       <c r="V84" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W84" s="52"/>
       <c r="X84" s="52"/>
       <c r="Z84" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD84">
@@ -7706,8 +7738,8 @@
       <c r="AO84">
         <v>0</v>
       </c>
-      <c r="AS84">
-        <f t="shared" si="7"/>
+      <c r="AS84" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT84" s="59">
@@ -7738,13 +7770,13 @@
       <c r="T85" s="50"/>
       <c r="U85" s="51"/>
       <c r="V85" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W85" s="52"/>
       <c r="X85" s="52"/>
       <c r="Z85" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD85">
@@ -7784,8 +7816,8 @@
       <c r="AO85">
         <v>0</v>
       </c>
-      <c r="AS85">
-        <f t="shared" si="7"/>
+      <c r="AS85" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT85" s="59">
@@ -7816,13 +7848,13 @@
       <c r="T86" s="50"/>
       <c r="U86" s="51"/>
       <c r="V86" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W86" s="52"/>
       <c r="X86" s="52"/>
       <c r="Z86" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD86">
@@ -7862,8 +7894,8 @@
       <c r="AO86">
         <v>0</v>
       </c>
-      <c r="AS86">
-        <f t="shared" ref="AS86:AS149" si="13">(AP86*6)+(AQ86*8)+(AR86*5)</f>
+      <c r="AS86" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT86" s="59">
@@ -7894,13 +7926,13 @@
       <c r="T87" s="50"/>
       <c r="U87" s="51"/>
       <c r="V87" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W87" s="52"/>
       <c r="X87" s="52"/>
       <c r="Z87" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD87">
@@ -7940,8 +7972,8 @@
       <c r="AO87">
         <v>0</v>
       </c>
-      <c r="AS87">
-        <f t="shared" si="13"/>
+      <c r="AS87" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT87" s="59">
@@ -7972,13 +8004,13 @@
       <c r="T88" s="50"/>
       <c r="U88" s="51"/>
       <c r="V88" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W88" s="52"/>
       <c r="X88" s="52"/>
       <c r="Z88" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD88">
@@ -8018,8 +8050,8 @@
       <c r="AO88">
         <v>0</v>
       </c>
-      <c r="AS88">
-        <f t="shared" si="13"/>
+      <c r="AS88" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT88" s="59">
@@ -8050,13 +8082,13 @@
       <c r="T89" s="50"/>
       <c r="U89" s="51"/>
       <c r="V89" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W89" s="52"/>
       <c r="X89" s="52"/>
       <c r="Z89" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD89">
@@ -8096,8 +8128,8 @@
       <c r="AO89">
         <v>0</v>
       </c>
-      <c r="AS89">
-        <f t="shared" si="13"/>
+      <c r="AS89" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT89" s="59">
@@ -8128,13 +8160,13 @@
       <c r="T90" s="50"/>
       <c r="U90" s="51"/>
       <c r="V90" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W90" s="52"/>
       <c r="X90" s="52"/>
       <c r="Z90" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD90">
@@ -8174,8 +8206,8 @@
       <c r="AO90">
         <v>0</v>
       </c>
-      <c r="AS90">
-        <f t="shared" si="13"/>
+      <c r="AS90" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT90" s="59">
@@ -8206,13 +8238,13 @@
       <c r="T91" s="50"/>
       <c r="U91" s="51"/>
       <c r="V91" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W91" s="52"/>
       <c r="X91" s="52"/>
       <c r="Z91" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD91">
@@ -8252,8 +8284,8 @@
       <c r="AO91">
         <v>0</v>
       </c>
-      <c r="AS91">
-        <f t="shared" si="13"/>
+      <c r="AS91" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT91" s="59">
@@ -8284,13 +8316,13 @@
       <c r="T92" s="50"/>
       <c r="U92" s="51"/>
       <c r="V92" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W92" s="52"/>
       <c r="X92" s="52"/>
       <c r="Z92" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD92">
@@ -8330,8 +8362,8 @@
       <c r="AO92">
         <v>0</v>
       </c>
-      <c r="AS92">
-        <f t="shared" si="13"/>
+      <c r="AS92" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT92" s="59">
@@ -8362,13 +8394,13 @@
       <c r="T93" s="50"/>
       <c r="U93" s="51"/>
       <c r="V93" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W93" s="52"/>
       <c r="X93" s="52"/>
       <c r="Z93" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD93">
@@ -8408,8 +8440,8 @@
       <c r="AO93">
         <v>0</v>
       </c>
-      <c r="AS93">
-        <f t="shared" si="13"/>
+      <c r="AS93" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT93" s="59">
@@ -8438,13 +8470,13 @@
       <c r="T94" s="50"/>
       <c r="U94" s="51"/>
       <c r="V94" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W94" s="52"/>
       <c r="X94" s="52"/>
       <c r="Z94" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD94">
@@ -8484,8 +8516,8 @@
       <c r="AO94">
         <v>0</v>
       </c>
-      <c r="AS94">
-        <f t="shared" si="13"/>
+      <c r="AS94" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT94" s="59">
@@ -8514,13 +8546,13 @@
       <c r="T95" s="50"/>
       <c r="U95" s="51"/>
       <c r="V95" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W95" s="52"/>
       <c r="X95" s="52"/>
       <c r="Z95" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD95">
@@ -8560,8 +8592,8 @@
       <c r="AO95">
         <v>0</v>
       </c>
-      <c r="AS95">
-        <f t="shared" si="13"/>
+      <c r="AS95" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT95" s="59">
@@ -8590,13 +8622,13 @@
       <c r="T96" s="50"/>
       <c r="U96" s="51"/>
       <c r="V96" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W96" s="52"/>
       <c r="X96" s="52"/>
       <c r="Z96" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD96">
@@ -8636,8 +8668,8 @@
       <c r="AO96">
         <v>0</v>
       </c>
-      <c r="AS96">
-        <f t="shared" si="13"/>
+      <c r="AS96" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT96" s="59">
@@ -8666,13 +8698,13 @@
       <c r="T97" s="50"/>
       <c r="U97" s="51"/>
       <c r="V97" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W97" s="52"/>
       <c r="X97" s="52"/>
       <c r="Z97" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD97">
@@ -8712,8 +8744,8 @@
       <c r="AO97">
         <v>0</v>
       </c>
-      <c r="AS97">
-        <f t="shared" si="13"/>
+      <c r="AS97" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT97" s="59">
@@ -8742,13 +8774,13 @@
       <c r="T98" s="50"/>
       <c r="U98" s="51"/>
       <c r="V98" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W98" s="52"/>
       <c r="X98" s="52"/>
       <c r="Z98" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD98">
@@ -8788,8 +8820,8 @@
       <c r="AO98">
         <v>0</v>
       </c>
-      <c r="AS98">
-        <f t="shared" si="13"/>
+      <c r="AS98" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT98" s="59">
@@ -8818,13 +8850,13 @@
       <c r="T99" s="50"/>
       <c r="U99" s="51"/>
       <c r="V99" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W99" s="52"/>
       <c r="X99" s="52"/>
       <c r="Z99" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD99">
@@ -8864,8 +8896,8 @@
       <c r="AO99">
         <v>0</v>
       </c>
-      <c r="AS99">
-        <f t="shared" si="13"/>
+      <c r="AS99" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT99" s="59">
@@ -8894,13 +8926,13 @@
       <c r="T100" s="50"/>
       <c r="U100" s="51"/>
       <c r="V100" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W100" s="52"/>
       <c r="X100" s="52"/>
       <c r="Z100" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD100">
@@ -8940,8 +8972,8 @@
       <c r="AO100">
         <v>0</v>
       </c>
-      <c r="AS100">
-        <f t="shared" si="13"/>
+      <c r="AS100" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT100" s="59">
@@ -8970,13 +9002,13 @@
       <c r="T101" s="50"/>
       <c r="U101" s="51"/>
       <c r="V101" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W101" s="52"/>
       <c r="X101" s="52"/>
       <c r="Z101" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD101">
@@ -9016,8 +9048,8 @@
       <c r="AO101">
         <v>0</v>
       </c>
-      <c r="AS101">
-        <f t="shared" si="13"/>
+      <c r="AS101" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT101" s="59">
@@ -9046,13 +9078,13 @@
       <c r="T102" s="50"/>
       <c r="U102" s="51"/>
       <c r="V102" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W102" s="52"/>
       <c r="X102" s="52"/>
       <c r="Z102" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD102">
@@ -9092,8 +9124,8 @@
       <c r="AO102">
         <v>0</v>
       </c>
-      <c r="AS102">
-        <f t="shared" si="13"/>
+      <c r="AS102" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT102" s="59">
@@ -9122,13 +9154,13 @@
       <c r="T103" s="50"/>
       <c r="U103" s="51"/>
       <c r="V103" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W103" s="52"/>
       <c r="X103" s="52"/>
       <c r="Z103" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD103">
@@ -9168,8 +9200,8 @@
       <c r="AO103">
         <v>0</v>
       </c>
-      <c r="AS103">
-        <f t="shared" si="13"/>
+      <c r="AS103" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT103" s="59">
@@ -9198,13 +9230,13 @@
       <c r="T104" s="50"/>
       <c r="U104" s="51"/>
       <c r="V104" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W104" s="52"/>
       <c r="X104" s="52"/>
       <c r="Z104" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD104">
@@ -9244,8 +9276,8 @@
       <c r="AO104">
         <v>0</v>
       </c>
-      <c r="AS104">
-        <f t="shared" si="13"/>
+      <c r="AS104" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT104" s="59">
@@ -9274,13 +9306,13 @@
       <c r="T105" s="50"/>
       <c r="U105" s="51"/>
       <c r="V105" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W105" s="52"/>
       <c r="X105" s="52"/>
       <c r="Z105" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD105">
@@ -9320,8 +9352,8 @@
       <c r="AO105">
         <v>0</v>
       </c>
-      <c r="AS105">
-        <f t="shared" si="13"/>
+      <c r="AS105" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT105" s="59">
@@ -9350,13 +9382,13 @@
       <c r="T106" s="50"/>
       <c r="U106" s="51"/>
       <c r="V106" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W106" s="52"/>
       <c r="X106" s="52"/>
       <c r="Z106" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD106">
@@ -9396,8 +9428,8 @@
       <c r="AO106">
         <v>0</v>
       </c>
-      <c r="AS106">
-        <f t="shared" si="13"/>
+      <c r="AS106" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT106" s="59">
@@ -9426,13 +9458,13 @@
       <c r="T107" s="50"/>
       <c r="U107" s="51"/>
       <c r="V107" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W107" s="52"/>
       <c r="X107" s="52"/>
       <c r="Z107" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD107">
@@ -9472,8 +9504,8 @@
       <c r="AO107">
         <v>0</v>
       </c>
-      <c r="AS107">
-        <f t="shared" si="13"/>
+      <c r="AS107" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT107" s="59">
@@ -9502,13 +9534,13 @@
       <c r="T108" s="50"/>
       <c r="U108" s="51"/>
       <c r="V108" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W108" s="52"/>
       <c r="X108" s="52"/>
       <c r="Z108" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD108">
@@ -9548,8 +9580,8 @@
       <c r="AO108">
         <v>0</v>
       </c>
-      <c r="AS108">
-        <f t="shared" si="13"/>
+      <c r="AS108" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT108" s="59">
@@ -9578,13 +9610,13 @@
       <c r="T109" s="50"/>
       <c r="U109" s="51"/>
       <c r="V109" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W109" s="52"/>
       <c r="X109" s="52"/>
       <c r="Z109" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD109">
@@ -9624,8 +9656,8 @@
       <c r="AO109">
         <v>0</v>
       </c>
-      <c r="AS109">
-        <f t="shared" si="13"/>
+      <c r="AS109" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT109" s="59">
@@ -9654,13 +9686,13 @@
       <c r="T110" s="50"/>
       <c r="U110" s="51"/>
       <c r="V110" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W110" s="52"/>
       <c r="X110" s="52"/>
       <c r="Z110" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD110">
@@ -9700,8 +9732,8 @@
       <c r="AO110">
         <v>0</v>
       </c>
-      <c r="AS110">
-        <f t="shared" si="13"/>
+      <c r="AS110" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT110" s="59">
@@ -9730,13 +9762,13 @@
       <c r="T111" s="50"/>
       <c r="U111" s="51"/>
       <c r="V111" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W111" s="52"/>
       <c r="X111" s="52"/>
       <c r="Z111" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD111">
@@ -9776,8 +9808,8 @@
       <c r="AO111">
         <v>0</v>
       </c>
-      <c r="AS111">
-        <f t="shared" si="13"/>
+      <c r="AS111" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT111" s="59">
@@ -9806,13 +9838,13 @@
       <c r="T112" s="50"/>
       <c r="U112" s="51"/>
       <c r="V112" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W112" s="52"/>
       <c r="X112" s="52"/>
       <c r="Z112" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD112">
@@ -9852,8 +9884,8 @@
       <c r="AO112">
         <v>0</v>
       </c>
-      <c r="AS112">
-        <f t="shared" si="13"/>
+      <c r="AS112" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT112" s="59">
@@ -9882,13 +9914,13 @@
       <c r="T113" s="50"/>
       <c r="U113" s="51"/>
       <c r="V113" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W113" s="52"/>
       <c r="X113" s="52"/>
       <c r="Z113" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD113">
@@ -9928,8 +9960,8 @@
       <c r="AO113">
         <v>0</v>
       </c>
-      <c r="AS113">
-        <f t="shared" si="13"/>
+      <c r="AS113" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT113" s="59">
@@ -9958,13 +9990,13 @@
       <c r="T114" s="50"/>
       <c r="U114" s="51"/>
       <c r="V114" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W114" s="52"/>
       <c r="X114" s="52"/>
       <c r="Z114" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD114">
@@ -10004,8 +10036,8 @@
       <c r="AO114">
         <v>0</v>
       </c>
-      <c r="AS114">
-        <f t="shared" si="13"/>
+      <c r="AS114" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT114" s="59">
@@ -10034,13 +10066,13 @@
       <c r="T115" s="50"/>
       <c r="U115" s="51"/>
       <c r="V115" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W115" s="52"/>
       <c r="X115" s="52"/>
       <c r="Z115" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD115">
@@ -10080,8 +10112,8 @@
       <c r="AO115">
         <v>0</v>
       </c>
-      <c r="AS115">
-        <f t="shared" si="13"/>
+      <c r="AS115" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT115" s="59">
@@ -10110,13 +10142,13 @@
       <c r="T116" s="50"/>
       <c r="U116" s="51"/>
       <c r="V116" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W116" s="52"/>
       <c r="X116" s="52"/>
       <c r="Z116" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD116">
@@ -10156,8 +10188,8 @@
       <c r="AO116">
         <v>0</v>
       </c>
-      <c r="AS116">
-        <f t="shared" si="13"/>
+      <c r="AS116" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT116" s="59">
@@ -10186,13 +10218,13 @@
       <c r="T117" s="50"/>
       <c r="U117" s="51"/>
       <c r="V117" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W117" s="52"/>
       <c r="X117" s="52"/>
       <c r="Z117" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD117">
@@ -10232,8 +10264,8 @@
       <c r="AO117">
         <v>0</v>
       </c>
-      <c r="AS117">
-        <f t="shared" si="13"/>
+      <c r="AS117" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT117" s="59">
@@ -10262,13 +10294,13 @@
       <c r="T118" s="50"/>
       <c r="U118" s="51"/>
       <c r="V118" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W118" s="52"/>
       <c r="X118" s="52"/>
       <c r="Z118" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD118">
@@ -10308,8 +10340,8 @@
       <c r="AO118">
         <v>0</v>
       </c>
-      <c r="AS118">
-        <f t="shared" si="13"/>
+      <c r="AS118" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT118" s="59">
@@ -10338,13 +10370,13 @@
       <c r="T119" s="50"/>
       <c r="U119" s="51"/>
       <c r="V119" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W119" s="52"/>
       <c r="X119" s="52"/>
       <c r="Z119" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD119">
@@ -10384,8 +10416,8 @@
       <c r="AO119">
         <v>0</v>
       </c>
-      <c r="AS119">
-        <f t="shared" si="13"/>
+      <c r="AS119" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT119" s="59">
@@ -10414,13 +10446,13 @@
       <c r="T120" s="50"/>
       <c r="U120" s="51"/>
       <c r="V120" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W120" s="52"/>
       <c r="X120" s="52"/>
       <c r="Z120" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD120">
@@ -10460,8 +10492,8 @@
       <c r="AO120">
         <v>0</v>
       </c>
-      <c r="AS120">
-        <f t="shared" si="13"/>
+      <c r="AS120" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT120" s="59">
@@ -10490,13 +10522,13 @@
       <c r="T121" s="50"/>
       <c r="U121" s="51"/>
       <c r="V121" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W121" s="52"/>
       <c r="X121" s="52"/>
       <c r="Z121" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD121">
@@ -10536,8 +10568,8 @@
       <c r="AO121">
         <v>0</v>
       </c>
-      <c r="AS121">
-        <f t="shared" si="13"/>
+      <c r="AS121" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT121" s="59">
@@ -10566,13 +10598,13 @@
       <c r="T122" s="50"/>
       <c r="U122" s="51"/>
       <c r="V122" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W122" s="52"/>
       <c r="X122" s="52"/>
       <c r="Z122" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD122">
@@ -10612,8 +10644,8 @@
       <c r="AO122">
         <v>0</v>
       </c>
-      <c r="AS122">
-        <f t="shared" si="13"/>
+      <c r="AS122" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU122">
@@ -10639,13 +10671,13 @@
       <c r="T123" s="50"/>
       <c r="U123" s="51"/>
       <c r="V123" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W123" s="52"/>
       <c r="X123" s="52"/>
       <c r="Z123" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD123">
@@ -10685,8 +10717,8 @@
       <c r="AO123">
         <v>0</v>
       </c>
-      <c r="AS123">
-        <f t="shared" si="13"/>
+      <c r="AS123" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU123">
@@ -10712,13 +10744,13 @@
       <c r="T124" s="50"/>
       <c r="U124" s="51"/>
       <c r="V124" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W124" s="52"/>
       <c r="X124" s="52"/>
       <c r="Z124" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD124">
@@ -10758,8 +10790,8 @@
       <c r="AO124">
         <v>0</v>
       </c>
-      <c r="AS124">
-        <f t="shared" si="13"/>
+      <c r="AS124" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU124">
@@ -10785,13 +10817,13 @@
       <c r="T125" s="50"/>
       <c r="U125" s="51"/>
       <c r="V125" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W125" s="52"/>
       <c r="X125" s="52"/>
       <c r="Z125" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD125">
@@ -10831,8 +10863,8 @@
       <c r="AO125">
         <v>0</v>
       </c>
-      <c r="AS125">
-        <f t="shared" si="13"/>
+      <c r="AS125" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU125">
@@ -10858,13 +10890,13 @@
       <c r="T126" s="50"/>
       <c r="U126" s="51"/>
       <c r="V126" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W126" s="52"/>
       <c r="X126" s="52"/>
       <c r="Z126" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD126">
@@ -10904,8 +10936,8 @@
       <c r="AO126">
         <v>0</v>
       </c>
-      <c r="AS126">
-        <f t="shared" si="13"/>
+      <c r="AS126" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU126">
@@ -10931,13 +10963,13 @@
       <c r="T127" s="50"/>
       <c r="U127" s="51"/>
       <c r="V127" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W127" s="52"/>
       <c r="X127" s="52"/>
       <c r="Z127" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD127">
@@ -10977,8 +11009,8 @@
       <c r="AO127">
         <v>0</v>
       </c>
-      <c r="AS127">
-        <f t="shared" si="13"/>
+      <c r="AS127" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU127">
@@ -11004,13 +11036,13 @@
       <c r="T128" s="50"/>
       <c r="U128" s="51"/>
       <c r="V128" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W128" s="52"/>
       <c r="X128" s="52"/>
       <c r="Z128" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD128">
@@ -11050,8 +11082,8 @@
       <c r="AO128">
         <v>0</v>
       </c>
-      <c r="AS128">
-        <f t="shared" si="13"/>
+      <c r="AS128" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU128">
@@ -11077,13 +11109,13 @@
       <c r="T129" s="50"/>
       <c r="U129" s="51"/>
       <c r="V129" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W129" s="52"/>
       <c r="X129" s="52"/>
       <c r="Z129" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD129">
@@ -11123,8 +11155,8 @@
       <c r="AO129">
         <v>0</v>
       </c>
-      <c r="AS129">
-        <f t="shared" si="13"/>
+      <c r="AS129" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU129">
@@ -11150,13 +11182,13 @@
       <c r="T130" s="50"/>
       <c r="U130" s="51"/>
       <c r="V130" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W130" s="52"/>
       <c r="X130" s="52"/>
       <c r="Z130" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD130">
@@ -11196,8 +11228,8 @@
       <c r="AO130">
         <v>0</v>
       </c>
-      <c r="AS130">
-        <f t="shared" si="13"/>
+      <c r="AS130" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU130">
@@ -11223,13 +11255,13 @@
       <c r="T131" s="50"/>
       <c r="U131" s="51"/>
       <c r="V131" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W131" s="52"/>
       <c r="X131" s="52"/>
       <c r="Z131" s="53">
-        <f t="shared" ref="Z131:Z194" si="14">SUM(AA131,AD131,AE131,AF131,AG131,AH131,AI131,AJ131,AK131,AL131,AM131,AN131)</f>
+        <f t="shared" ref="Z131:Z194" si="13">SUM(AA131,AD131,AE131,AF131,AG131,AH131,AI131,AJ131,AK131,AL131,AM131,AN131)</f>
         <v>0</v>
       </c>
       <c r="AD131">
@@ -11269,8 +11301,8 @@
       <c r="AO131">
         <v>0</v>
       </c>
-      <c r="AS131">
-        <f t="shared" si="13"/>
+      <c r="AS131" s="59">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU131">
@@ -11296,13 +11328,13 @@
       <c r="T132" s="50"/>
       <c r="U132" s="51"/>
       <c r="V132" s="43">
-        <f t="shared" ref="V132:V195" si="15">(SUM(W132,X132))-Z132</f>
+        <f t="shared" ref="V132:V195" si="14">(SUM(W132,X132))-Z132</f>
         <v>0</v>
       </c>
       <c r="W132" s="52"/>
       <c r="X132" s="52"/>
       <c r="Z132" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD132">
@@ -11342,8 +11374,8 @@
       <c r="AO132">
         <v>0</v>
       </c>
-      <c r="AS132">
-        <f t="shared" si="13"/>
+      <c r="AS132" s="59">
+        <f t="shared" ref="AS132:AS195" si="15">(AP132*6)+(AQ132*8)+(AR132*5)</f>
         <v>0</v>
       </c>
       <c r="AU132">
@@ -11369,13 +11401,13 @@
       <c r="T133" s="50"/>
       <c r="U133" s="51"/>
       <c r="V133" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W133" s="52"/>
       <c r="X133" s="52"/>
       <c r="Z133" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD133">
@@ -11415,8 +11447,8 @@
       <c r="AO133">
         <v>0</v>
       </c>
-      <c r="AS133">
-        <f t="shared" si="13"/>
+      <c r="AS133" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU133">
@@ -11442,13 +11474,13 @@
       <c r="T134" s="50"/>
       <c r="U134" s="51"/>
       <c r="V134" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W134" s="52"/>
       <c r="X134" s="52"/>
       <c r="Z134" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD134">
@@ -11488,8 +11520,8 @@
       <c r="AO134">
         <v>0</v>
       </c>
-      <c r="AS134">
-        <f t="shared" si="13"/>
+      <c r="AS134" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU134">
@@ -11515,13 +11547,13 @@
       <c r="T135" s="50"/>
       <c r="U135" s="51"/>
       <c r="V135" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W135" s="52"/>
       <c r="X135" s="52"/>
       <c r="Z135" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD135">
@@ -11561,8 +11593,8 @@
       <c r="AO135">
         <v>0</v>
       </c>
-      <c r="AS135">
-        <f t="shared" si="13"/>
+      <c r="AS135" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU135">
@@ -11588,13 +11620,13 @@
       <c r="T136" s="50"/>
       <c r="U136" s="51"/>
       <c r="V136" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W136" s="52"/>
       <c r="X136" s="52"/>
       <c r="Z136" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD136">
@@ -11634,8 +11666,8 @@
       <c r="AO136">
         <v>0</v>
       </c>
-      <c r="AS136">
-        <f t="shared" si="13"/>
+      <c r="AS136" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU136">
@@ -11661,13 +11693,13 @@
       <c r="T137" s="50"/>
       <c r="U137" s="51"/>
       <c r="V137" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W137" s="52"/>
       <c r="X137" s="52"/>
       <c r="Z137" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD137">
@@ -11707,8 +11739,8 @@
       <c r="AO137">
         <v>0</v>
       </c>
-      <c r="AS137">
-        <f t="shared" si="13"/>
+      <c r="AS137" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU137">
@@ -11734,13 +11766,13 @@
       <c r="T138" s="50"/>
       <c r="U138" s="51"/>
       <c r="V138" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W138" s="52"/>
       <c r="X138" s="52"/>
       <c r="Z138" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD138">
@@ -11777,8 +11809,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS138">
-        <f t="shared" si="13"/>
+      <c r="AS138" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU138">
@@ -11804,13 +11836,13 @@
       <c r="T139" s="50"/>
       <c r="U139" s="51"/>
       <c r="V139" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W139" s="52"/>
       <c r="X139" s="52"/>
       <c r="Z139" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD139">
@@ -11847,8 +11879,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS139">
-        <f t="shared" si="13"/>
+      <c r="AS139" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU139">
@@ -11874,13 +11906,13 @@
       <c r="T140" s="50"/>
       <c r="U140" s="51"/>
       <c r="V140" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W140" s="52"/>
       <c r="X140" s="52"/>
       <c r="Z140" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD140">
@@ -11917,8 +11949,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS140">
-        <f t="shared" si="13"/>
+      <c r="AS140" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU140">
@@ -11944,13 +11976,13 @@
       <c r="T141" s="50"/>
       <c r="U141" s="51"/>
       <c r="V141" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W141" s="52"/>
       <c r="X141" s="52"/>
       <c r="Z141" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD141">
@@ -11987,8 +12019,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS141">
-        <f t="shared" si="13"/>
+      <c r="AS141" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU141">
@@ -12014,13 +12046,13 @@
       <c r="T142" s="50"/>
       <c r="U142" s="51"/>
       <c r="V142" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W142" s="52"/>
       <c r="X142" s="52"/>
       <c r="Z142" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD142">
@@ -12057,8 +12089,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS142">
-        <f t="shared" si="13"/>
+      <c r="AS142" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU142">
@@ -12084,13 +12116,13 @@
       <c r="T143" s="50"/>
       <c r="U143" s="51"/>
       <c r="V143" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W143" s="52"/>
       <c r="X143" s="52"/>
       <c r="Z143" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD143">
@@ -12127,8 +12159,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS143">
-        <f t="shared" si="13"/>
+      <c r="AS143" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU143">
@@ -12154,13 +12186,13 @@
       <c r="T144" s="50"/>
       <c r="U144" s="51"/>
       <c r="V144" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W144" s="52"/>
       <c r="X144" s="52"/>
       <c r="Z144" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD144">
@@ -12197,8 +12229,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS144">
-        <f t="shared" si="13"/>
+      <c r="AS144" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU144">
@@ -12224,13 +12256,13 @@
       <c r="T145" s="50"/>
       <c r="U145" s="51"/>
       <c r="V145" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W145" s="52"/>
       <c r="X145" s="52"/>
       <c r="Z145" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD145">
@@ -12267,8 +12299,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS145">
-        <f t="shared" si="13"/>
+      <c r="AS145" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU145">
@@ -12294,13 +12326,13 @@
       <c r="T146" s="50"/>
       <c r="U146" s="51"/>
       <c r="V146" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W146" s="52"/>
       <c r="X146" s="52"/>
       <c r="Z146" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD146">
@@ -12337,8 +12369,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS146">
-        <f t="shared" si="13"/>
+      <c r="AS146" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU146">
@@ -12364,13 +12396,13 @@
       <c r="T147" s="50"/>
       <c r="U147" s="51"/>
       <c r="V147" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W147" s="52"/>
       <c r="X147" s="52"/>
       <c r="Z147" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD147">
@@ -12407,8 +12439,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS147">
-        <f t="shared" si="13"/>
+      <c r="AS147" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU147">
@@ -12434,13 +12466,13 @@
       <c r="T148" s="50"/>
       <c r="U148" s="51"/>
       <c r="V148" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W148" s="52"/>
       <c r="X148" s="52"/>
       <c r="Z148" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD148">
@@ -12477,8 +12509,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS148">
-        <f t="shared" si="13"/>
+      <c r="AS148" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU148">
@@ -12504,13 +12536,13 @@
       <c r="T149" s="50"/>
       <c r="U149" s="51"/>
       <c r="V149" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W149" s="52"/>
       <c r="X149" s="52"/>
       <c r="Z149" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD149">
@@ -12547,8 +12579,8 @@
         <f t="shared" ref="AN149:AN212" si="17">SUM(AO149,AV149,AU149)</f>
         <v>0</v>
       </c>
-      <c r="AS149">
-        <f t="shared" si="13"/>
+      <c r="AS149" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU149">
@@ -12574,13 +12606,13 @@
       <c r="T150" s="50"/>
       <c r="U150" s="51"/>
       <c r="V150" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W150" s="52"/>
       <c r="X150" s="52"/>
       <c r="Z150" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD150">
@@ -12617,8 +12649,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS150">
-        <f t="shared" ref="AS150:AS213" si="18">(AP150*6)+(AQ150*8)+(AR150*5)</f>
+      <c r="AS150" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU150">
@@ -12644,13 +12676,13 @@
       <c r="T151" s="50"/>
       <c r="U151" s="51"/>
       <c r="V151" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W151" s="52"/>
       <c r="X151" s="52"/>
       <c r="Z151" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD151">
@@ -12687,8 +12719,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS151">
-        <f t="shared" si="18"/>
+      <c r="AS151" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU151">
@@ -12714,13 +12746,13 @@
       <c r="T152" s="50"/>
       <c r="U152" s="51"/>
       <c r="V152" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W152" s="52"/>
       <c r="X152" s="52"/>
       <c r="Z152" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD152">
@@ -12757,8 +12789,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS152">
-        <f t="shared" si="18"/>
+      <c r="AS152" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU152">
@@ -12784,13 +12816,13 @@
       <c r="T153" s="50"/>
       <c r="U153" s="51"/>
       <c r="V153" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W153" s="52"/>
       <c r="X153" s="52"/>
       <c r="Z153" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD153">
@@ -12827,8 +12859,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS153">
-        <f t="shared" si="18"/>
+      <c r="AS153" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU153">
@@ -12854,13 +12886,13 @@
       <c r="T154" s="50"/>
       <c r="U154" s="51"/>
       <c r="V154" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W154" s="52"/>
       <c r="X154" s="52"/>
       <c r="Z154" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD154">
@@ -12897,8 +12929,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS154">
-        <f t="shared" si="18"/>
+      <c r="AS154" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU154">
@@ -12924,13 +12956,13 @@
       <c r="T155" s="50"/>
       <c r="U155" s="51"/>
       <c r="V155" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W155" s="52"/>
       <c r="X155" s="52"/>
       <c r="Z155" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD155">
@@ -12967,8 +12999,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS155">
-        <f t="shared" si="18"/>
+      <c r="AS155" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU155">
@@ -12994,13 +13026,13 @@
       <c r="T156" s="50"/>
       <c r="U156" s="51"/>
       <c r="V156" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W156" s="52"/>
       <c r="X156" s="52"/>
       <c r="Z156" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD156">
@@ -13037,8 +13069,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS156">
-        <f t="shared" si="18"/>
+      <c r="AS156" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU156">
@@ -13064,13 +13096,13 @@
       <c r="T157" s="50"/>
       <c r="U157" s="51"/>
       <c r="V157" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W157" s="52"/>
       <c r="X157" s="52"/>
       <c r="Z157" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD157">
@@ -13107,8 +13139,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS157">
-        <f t="shared" si="18"/>
+      <c r="AS157" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU157">
@@ -13134,13 +13166,13 @@
       <c r="T158" s="50"/>
       <c r="U158" s="51"/>
       <c r="V158" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W158" s="52"/>
       <c r="X158" s="52"/>
       <c r="Z158" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD158">
@@ -13177,8 +13209,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS158">
-        <f t="shared" si="18"/>
+      <c r="AS158" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU158">
@@ -13204,13 +13236,13 @@
       <c r="T159" s="50"/>
       <c r="U159" s="51"/>
       <c r="V159" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W159" s="52"/>
       <c r="X159" s="52"/>
       <c r="Z159" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD159">
@@ -13247,8 +13279,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS159">
-        <f t="shared" si="18"/>
+      <c r="AS159" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU159">
@@ -13274,13 +13306,13 @@
       <c r="T160" s="50"/>
       <c r="U160" s="51"/>
       <c r="V160" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W160" s="52"/>
       <c r="X160" s="52"/>
       <c r="Z160" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD160">
@@ -13317,8 +13349,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS160">
-        <f t="shared" si="18"/>
+      <c r="AS160" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU160">
@@ -13344,13 +13376,13 @@
       <c r="T161" s="50"/>
       <c r="U161" s="51"/>
       <c r="V161" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W161" s="52"/>
       <c r="X161" s="52"/>
       <c r="Z161" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD161">
@@ -13387,8 +13419,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS161">
-        <f t="shared" si="18"/>
+      <c r="AS161" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU161">
@@ -13414,13 +13446,13 @@
       <c r="T162" s="50"/>
       <c r="U162" s="51"/>
       <c r="V162" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W162" s="52"/>
       <c r="X162" s="52"/>
       <c r="Z162" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD162">
@@ -13457,8 +13489,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS162">
-        <f t="shared" si="18"/>
+      <c r="AS162" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU162">
@@ -13484,13 +13516,13 @@
       <c r="T163" s="50"/>
       <c r="U163" s="51"/>
       <c r="V163" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W163" s="52"/>
       <c r="X163" s="52"/>
       <c r="Z163" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD163">
@@ -13527,8 +13559,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS163">
-        <f t="shared" si="18"/>
+      <c r="AS163" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU163">
@@ -13554,13 +13586,13 @@
       <c r="T164" s="50"/>
       <c r="U164" s="51"/>
       <c r="V164" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W164" s="52"/>
       <c r="X164" s="52"/>
       <c r="Z164" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD164">
@@ -13597,8 +13629,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS164">
-        <f t="shared" si="18"/>
+      <c r="AS164" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU164">
@@ -13624,13 +13656,13 @@
       <c r="T165" s="50"/>
       <c r="U165" s="51"/>
       <c r="V165" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W165" s="52"/>
       <c r="X165" s="52"/>
       <c r="Z165" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD165">
@@ -13667,8 +13699,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS165">
-        <f t="shared" si="18"/>
+      <c r="AS165" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU165">
@@ -13694,13 +13726,13 @@
       <c r="T166" s="50"/>
       <c r="U166" s="51"/>
       <c r="V166" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W166" s="52"/>
       <c r="X166" s="52"/>
       <c r="Z166" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD166">
@@ -13737,8 +13769,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS166">
-        <f t="shared" si="18"/>
+      <c r="AS166" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU166">
@@ -13764,13 +13796,13 @@
       <c r="T167" s="50"/>
       <c r="U167" s="51"/>
       <c r="V167" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W167" s="52"/>
       <c r="X167" s="52"/>
       <c r="Z167" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD167">
@@ -13807,8 +13839,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS167">
-        <f t="shared" si="18"/>
+      <c r="AS167" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU167">
@@ -13834,13 +13866,13 @@
       <c r="T168" s="50"/>
       <c r="U168" s="51"/>
       <c r="V168" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W168" s="52"/>
       <c r="X168" s="52"/>
       <c r="Z168" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD168">
@@ -13877,8 +13909,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS168">
-        <f t="shared" si="18"/>
+      <c r="AS168" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU168">
@@ -13904,13 +13936,13 @@
       <c r="T169" s="50"/>
       <c r="U169" s="51"/>
       <c r="V169" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W169" s="52"/>
       <c r="X169" s="52"/>
       <c r="Z169" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD169">
@@ -13947,8 +13979,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS169">
-        <f t="shared" si="18"/>
+      <c r="AS169" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU169">
@@ -13974,13 +14006,13 @@
       <c r="T170" s="50"/>
       <c r="U170" s="51"/>
       <c r="V170" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W170" s="52"/>
       <c r="X170" s="52"/>
       <c r="Z170" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD170">
@@ -14017,8 +14049,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS170">
-        <f t="shared" si="18"/>
+      <c r="AS170" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU170">
@@ -14044,13 +14076,13 @@
       <c r="T171" s="50"/>
       <c r="U171" s="51"/>
       <c r="V171" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W171" s="52"/>
       <c r="X171" s="52"/>
       <c r="Z171" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD171">
@@ -14087,8 +14119,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS171">
-        <f t="shared" si="18"/>
+      <c r="AS171" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU171">
@@ -14114,13 +14146,13 @@
       <c r="T172" s="50"/>
       <c r="U172" s="51"/>
       <c r="V172" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W172" s="52"/>
       <c r="X172" s="52"/>
       <c r="Z172" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD172">
@@ -14157,8 +14189,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS172">
-        <f t="shared" si="18"/>
+      <c r="AS172" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU172">
@@ -14184,13 +14216,13 @@
       <c r="T173" s="50"/>
       <c r="U173" s="51"/>
       <c r="V173" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W173" s="52"/>
       <c r="X173" s="52"/>
       <c r="Z173" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD173">
@@ -14227,8 +14259,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS173">
-        <f t="shared" si="18"/>
+      <c r="AS173" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU173">
@@ -14254,13 +14286,13 @@
       <c r="T174" s="50"/>
       <c r="U174" s="51"/>
       <c r="V174" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W174" s="52"/>
       <c r="X174" s="52"/>
       <c r="Z174" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD174">
@@ -14297,8 +14329,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS174">
-        <f t="shared" si="18"/>
+      <c r="AS174" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU174">
@@ -14324,13 +14356,13 @@
       <c r="T175" s="50"/>
       <c r="U175" s="51"/>
       <c r="V175" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W175" s="52"/>
       <c r="X175" s="52"/>
       <c r="Z175" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD175">
@@ -14367,8 +14399,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS175">
-        <f t="shared" si="18"/>
+      <c r="AS175" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU175">
@@ -14394,13 +14426,13 @@
       <c r="T176" s="50"/>
       <c r="U176" s="51"/>
       <c r="V176" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W176" s="52"/>
       <c r="X176" s="52"/>
       <c r="Z176" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD176">
@@ -14437,8 +14469,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS176">
-        <f t="shared" si="18"/>
+      <c r="AS176" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU176">
@@ -14464,13 +14496,13 @@
       <c r="T177" s="50"/>
       <c r="U177" s="51"/>
       <c r="V177" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W177" s="52"/>
       <c r="X177" s="52"/>
       <c r="Z177" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD177">
@@ -14507,8 +14539,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS177">
-        <f t="shared" si="18"/>
+      <c r="AS177" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU177">
@@ -14534,13 +14566,13 @@
       <c r="T178" s="50"/>
       <c r="U178" s="51"/>
       <c r="V178" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W178" s="52"/>
       <c r="X178" s="52"/>
       <c r="Z178" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD178">
@@ -14577,8 +14609,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS178">
-        <f t="shared" si="18"/>
+      <c r="AS178" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU178">
@@ -14604,13 +14636,13 @@
       <c r="T179" s="50"/>
       <c r="U179" s="51"/>
       <c r="V179" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W179" s="52"/>
       <c r="X179" s="52"/>
       <c r="Z179" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD179">
@@ -14647,8 +14679,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS179">
-        <f t="shared" si="18"/>
+      <c r="AS179" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU179">
@@ -14674,13 +14706,13 @@
       <c r="T180" s="50"/>
       <c r="U180" s="51"/>
       <c r="V180" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W180" s="52"/>
       <c r="X180" s="52"/>
       <c r="Z180" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD180">
@@ -14717,8 +14749,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS180">
-        <f t="shared" si="18"/>
+      <c r="AS180" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU180">
@@ -14744,13 +14776,13 @@
       <c r="T181" s="50"/>
       <c r="U181" s="51"/>
       <c r="V181" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W181" s="52"/>
       <c r="X181" s="52"/>
       <c r="Z181" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD181">
@@ -14787,8 +14819,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS181">
-        <f t="shared" si="18"/>
+      <c r="AS181" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU181">
@@ -14814,13 +14846,13 @@
       <c r="T182" s="50"/>
       <c r="U182" s="51"/>
       <c r="V182" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W182" s="52"/>
       <c r="X182" s="52"/>
       <c r="Z182" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD182">
@@ -14857,8 +14889,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS182">
-        <f t="shared" si="18"/>
+      <c r="AS182" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU182">
@@ -14884,13 +14916,13 @@
       <c r="T183" s="50"/>
       <c r="U183" s="51"/>
       <c r="V183" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W183" s="52"/>
       <c r="X183" s="52"/>
       <c r="Z183" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD183">
@@ -14927,8 +14959,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS183">
-        <f t="shared" si="18"/>
+      <c r="AS183" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU183">
@@ -14954,13 +14986,13 @@
       <c r="T184" s="50"/>
       <c r="U184" s="51"/>
       <c r="V184" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W184" s="52"/>
       <c r="X184" s="52"/>
       <c r="Z184" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD184">
@@ -14997,8 +15029,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS184">
-        <f t="shared" si="18"/>
+      <c r="AS184" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU184">
@@ -15024,13 +15056,13 @@
       <c r="T185" s="50"/>
       <c r="U185" s="51"/>
       <c r="V185" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W185" s="52"/>
       <c r="X185" s="52"/>
       <c r="Z185" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD185">
@@ -15067,8 +15099,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS185">
-        <f t="shared" si="18"/>
+      <c r="AS185" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU185">
@@ -15094,13 +15126,13 @@
       <c r="T186" s="50"/>
       <c r="U186" s="51"/>
       <c r="V186" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W186" s="52"/>
       <c r="X186" s="52"/>
       <c r="Z186" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD186">
@@ -15137,8 +15169,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS186">
-        <f t="shared" si="18"/>
+      <c r="AS186" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU186">
@@ -15164,13 +15196,13 @@
       <c r="T187" s="50"/>
       <c r="U187" s="51"/>
       <c r="V187" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W187" s="52"/>
       <c r="X187" s="52"/>
       <c r="Z187" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD187">
@@ -15207,8 +15239,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS187">
-        <f t="shared" si="18"/>
+      <c r="AS187" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU187">
@@ -15234,13 +15266,13 @@
       <c r="T188" s="50"/>
       <c r="U188" s="51"/>
       <c r="V188" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W188" s="52"/>
       <c r="X188" s="52"/>
       <c r="Z188" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD188">
@@ -15277,8 +15309,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS188">
-        <f t="shared" si="18"/>
+      <c r="AS188" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU188">
@@ -15304,13 +15336,13 @@
       <c r="T189" s="50"/>
       <c r="U189" s="51"/>
       <c r="V189" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W189" s="52"/>
       <c r="X189" s="52"/>
       <c r="Z189" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD189">
@@ -15347,8 +15379,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS189">
-        <f t="shared" si="18"/>
+      <c r="AS189" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU189">
@@ -15374,13 +15406,13 @@
       <c r="T190" s="50"/>
       <c r="U190" s="51"/>
       <c r="V190" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W190" s="52"/>
       <c r="X190" s="52"/>
       <c r="Z190" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD190">
@@ -15417,8 +15449,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS190">
-        <f t="shared" si="18"/>
+      <c r="AS190" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU190">
@@ -15444,13 +15476,13 @@
       <c r="T191" s="50"/>
       <c r="U191" s="51"/>
       <c r="V191" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W191" s="52"/>
       <c r="X191" s="52"/>
       <c r="Z191" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD191">
@@ -15487,8 +15519,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS191">
-        <f t="shared" si="18"/>
+      <c r="AS191" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU191">
@@ -15514,13 +15546,13 @@
       <c r="T192" s="50"/>
       <c r="U192" s="51"/>
       <c r="V192" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W192" s="52"/>
       <c r="X192" s="52"/>
       <c r="Z192" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD192">
@@ -15557,8 +15589,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS192">
-        <f t="shared" si="18"/>
+      <c r="AS192" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU192">
@@ -15584,13 +15616,13 @@
       <c r="T193" s="50"/>
       <c r="U193" s="51"/>
       <c r="V193" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W193" s="52"/>
       <c r="X193" s="52"/>
       <c r="Z193" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD193">
@@ -15627,8 +15659,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS193">
-        <f t="shared" si="18"/>
+      <c r="AS193" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU193">
@@ -15654,13 +15686,13 @@
       <c r="T194" s="50"/>
       <c r="U194" s="51"/>
       <c r="V194" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W194" s="52"/>
       <c r="X194" s="52"/>
       <c r="Z194" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD194">
@@ -15697,8 +15729,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS194">
-        <f t="shared" si="18"/>
+      <c r="AS194" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU194">
@@ -15724,13 +15756,13 @@
       <c r="T195" s="50"/>
       <c r="U195" s="51"/>
       <c r="V195" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W195" s="52"/>
       <c r="X195" s="52"/>
       <c r="Z195" s="53">
-        <f t="shared" ref="Z195:Z258" si="19">SUM(AA195,AD195,AE195,AF195,AG195,AH195,AI195,AJ195,AK195,AL195,AM195,AN195)</f>
+        <f t="shared" ref="Z195:Z258" si="18">SUM(AA195,AD195,AE195,AF195,AG195,AH195,AI195,AJ195,AK195,AL195,AM195,AN195)</f>
         <v>0</v>
       </c>
       <c r="AD195">
@@ -15767,8 +15799,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS195">
-        <f t="shared" si="18"/>
+      <c r="AS195" s="59">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AU195">
@@ -15794,13 +15826,13 @@
       <c r="T196" s="50"/>
       <c r="U196" s="51"/>
       <c r="V196" s="43">
-        <f t="shared" ref="V196:V259" si="20">(SUM(W196,X196))-Z196</f>
+        <f t="shared" ref="V196:V259" si="19">(SUM(W196,X196))-Z196</f>
         <v>0</v>
       </c>
       <c r="W196" s="52"/>
       <c r="X196" s="52"/>
       <c r="Z196" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD196">
@@ -15837,8 +15869,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS196">
-        <f t="shared" si="18"/>
+      <c r="AS196" s="59">
+        <f t="shared" ref="AS196:AS259" si="20">(AP196*6)+(AQ196*8)+(AR196*5)</f>
         <v>0</v>
       </c>
       <c r="AU196">
@@ -15864,13 +15896,13 @@
       <c r="T197" s="50"/>
       <c r="U197" s="51"/>
       <c r="V197" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W197" s="52"/>
       <c r="X197" s="52"/>
       <c r="Z197" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD197">
@@ -15907,8 +15939,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS197">
-        <f t="shared" si="18"/>
+      <c r="AS197" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU197">
@@ -15934,13 +15966,13 @@
       <c r="T198" s="50"/>
       <c r="U198" s="51"/>
       <c r="V198" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W198" s="52"/>
       <c r="X198" s="52"/>
       <c r="Z198" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD198">
@@ -15977,8 +16009,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS198">
-        <f t="shared" si="18"/>
+      <c r="AS198" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU198">
@@ -16004,13 +16036,13 @@
       <c r="T199" s="50"/>
       <c r="U199" s="51"/>
       <c r="V199" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W199" s="52"/>
       <c r="X199" s="52"/>
       <c r="Z199" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD199">
@@ -16047,8 +16079,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS199">
-        <f t="shared" si="18"/>
+      <c r="AS199" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU199">
@@ -16074,13 +16106,13 @@
       <c r="T200" s="50"/>
       <c r="U200" s="51"/>
       <c r="V200" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W200" s="52"/>
       <c r="X200" s="52"/>
       <c r="Z200" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD200">
@@ -16117,8 +16149,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS200">
-        <f t="shared" si="18"/>
+      <c r="AS200" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU200">
@@ -16144,13 +16176,13 @@
       <c r="T201" s="50"/>
       <c r="U201" s="51"/>
       <c r="V201" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W201" s="52"/>
       <c r="X201" s="52"/>
       <c r="Z201" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD201">
@@ -16187,8 +16219,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS201">
-        <f t="shared" si="18"/>
+      <c r="AS201" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU201">
@@ -16214,13 +16246,13 @@
       <c r="T202" s="50"/>
       <c r="U202" s="51"/>
       <c r="V202" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W202" s="52"/>
       <c r="X202" s="52"/>
       <c r="Z202" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD202">
@@ -16257,8 +16289,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS202">
-        <f t="shared" si="18"/>
+      <c r="AS202" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU202">
@@ -16284,13 +16316,13 @@
       <c r="T203" s="50"/>
       <c r="U203" s="51"/>
       <c r="V203" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W203" s="52"/>
       <c r="X203" s="52"/>
       <c r="Z203" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD203">
@@ -16327,8 +16359,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS203">
-        <f t="shared" si="18"/>
+      <c r="AS203" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU203">
@@ -16354,13 +16386,13 @@
       <c r="T204" s="50"/>
       <c r="U204" s="51"/>
       <c r="V204" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W204" s="52"/>
       <c r="X204" s="52"/>
       <c r="Z204" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD204">
@@ -16397,8 +16429,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS204">
-        <f t="shared" si="18"/>
+      <c r="AS204" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU204">
@@ -16424,13 +16456,13 @@
       <c r="T205" s="50"/>
       <c r="U205" s="51"/>
       <c r="V205" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W205" s="52"/>
       <c r="X205" s="52"/>
       <c r="Z205" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD205">
@@ -16467,8 +16499,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS205">
-        <f t="shared" si="18"/>
+      <c r="AS205" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU205">
@@ -16494,13 +16526,13 @@
       <c r="T206" s="50"/>
       <c r="U206" s="51"/>
       <c r="V206" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W206" s="52"/>
       <c r="X206" s="52"/>
       <c r="Z206" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD206">
@@ -16537,8 +16569,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS206">
-        <f t="shared" si="18"/>
+      <c r="AS206" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU206">
@@ -16564,13 +16596,13 @@
       <c r="T207" s="50"/>
       <c r="U207" s="51"/>
       <c r="V207" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W207" s="52"/>
       <c r="X207" s="52"/>
       <c r="Z207" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD207">
@@ -16607,8 +16639,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS207">
-        <f t="shared" si="18"/>
+      <c r="AS207" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU207">
@@ -16634,13 +16666,13 @@
       <c r="T208" s="50"/>
       <c r="U208" s="51"/>
       <c r="V208" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W208" s="52"/>
       <c r="X208" s="52"/>
       <c r="Z208" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD208">
@@ -16677,8 +16709,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS208">
-        <f t="shared" si="18"/>
+      <c r="AS208" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU208">
@@ -16704,13 +16736,13 @@
       <c r="T209" s="50"/>
       <c r="U209" s="51"/>
       <c r="V209" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W209" s="52"/>
       <c r="X209" s="52"/>
       <c r="Z209" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD209">
@@ -16747,8 +16779,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS209">
-        <f t="shared" si="18"/>
+      <c r="AS209" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU209">
@@ -16774,13 +16806,13 @@
       <c r="T210" s="50"/>
       <c r="U210" s="51"/>
       <c r="V210" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W210" s="52"/>
       <c r="X210" s="52"/>
       <c r="Z210" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD210">
@@ -16817,8 +16849,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS210">
-        <f t="shared" si="18"/>
+      <c r="AS210" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU210">
@@ -16844,13 +16876,13 @@
       <c r="T211" s="50"/>
       <c r="U211" s="51"/>
       <c r="V211" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W211" s="52"/>
       <c r="X211" s="52"/>
       <c r="Z211" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD211">
@@ -16887,8 +16919,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS211">
-        <f t="shared" si="18"/>
+      <c r="AS211" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU211">
@@ -16914,13 +16946,13 @@
       <c r="T212" s="50"/>
       <c r="U212" s="51"/>
       <c r="V212" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W212" s="52"/>
       <c r="X212" s="52"/>
       <c r="Z212" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD212">
@@ -16957,8 +16989,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS212">
-        <f t="shared" si="18"/>
+      <c r="AS212" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU212">
@@ -16984,13 +17016,13 @@
       <c r="T213" s="50"/>
       <c r="U213" s="51"/>
       <c r="V213" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W213" s="52"/>
       <c r="X213" s="52"/>
       <c r="Z213" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD213">
@@ -17027,8 +17059,8 @@
         <f t="shared" ref="AN213:AN276" si="22">SUM(AO213,AV213,AU213)</f>
         <v>0</v>
       </c>
-      <c r="AS213">
-        <f t="shared" si="18"/>
+      <c r="AS213" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU213">
@@ -17054,13 +17086,13 @@
       <c r="T214" s="50"/>
       <c r="U214" s="51"/>
       <c r="V214" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W214" s="52"/>
       <c r="X214" s="52"/>
       <c r="Z214" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD214">
@@ -17097,8 +17129,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS214">
-        <f t="shared" ref="AS214:AS277" si="23">(AP214*6)+(AQ214*8)+(AR214*5)</f>
+      <c r="AS214" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU214">
@@ -17124,13 +17156,13 @@
       <c r="T215" s="50"/>
       <c r="U215" s="51"/>
       <c r="V215" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W215" s="52"/>
       <c r="X215" s="52"/>
       <c r="Z215" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD215">
@@ -17167,8 +17199,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS215">
-        <f t="shared" si="23"/>
+      <c r="AS215" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU215">
@@ -17194,13 +17226,13 @@
       <c r="T216" s="50"/>
       <c r="U216" s="51"/>
       <c r="V216" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W216" s="52"/>
       <c r="X216" s="52"/>
       <c r="Z216" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD216">
@@ -17237,8 +17269,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS216">
-        <f t="shared" si="23"/>
+      <c r="AS216" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU216">
@@ -17264,13 +17296,13 @@
       <c r="T217" s="50"/>
       <c r="U217" s="51"/>
       <c r="V217" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W217" s="52"/>
       <c r="X217" s="52"/>
       <c r="Z217" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD217">
@@ -17307,8 +17339,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS217">
-        <f t="shared" si="23"/>
+      <c r="AS217" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU217">
@@ -17334,13 +17366,13 @@
       <c r="T218" s="50"/>
       <c r="U218" s="51"/>
       <c r="V218" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W218" s="52"/>
       <c r="X218" s="52"/>
       <c r="Z218" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD218">
@@ -17377,8 +17409,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS218">
-        <f t="shared" si="23"/>
+      <c r="AS218" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU218">
@@ -17404,13 +17436,13 @@
       <c r="T219" s="50"/>
       <c r="U219" s="51"/>
       <c r="V219" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W219" s="52"/>
       <c r="X219" s="52"/>
       <c r="Z219" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD219">
@@ -17447,8 +17479,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS219">
-        <f t="shared" si="23"/>
+      <c r="AS219" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU219">
@@ -17474,13 +17506,13 @@
       <c r="T220" s="50"/>
       <c r="U220" s="51"/>
       <c r="V220" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W220" s="52"/>
       <c r="X220" s="52"/>
       <c r="Z220" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD220">
@@ -17517,8 +17549,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS220">
-        <f t="shared" si="23"/>
+      <c r="AS220" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU220">
@@ -17544,13 +17576,13 @@
       <c r="T221" s="50"/>
       <c r="U221" s="51"/>
       <c r="V221" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W221" s="52"/>
       <c r="X221" s="52"/>
       <c r="Z221" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD221">
@@ -17587,8 +17619,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS221">
-        <f t="shared" si="23"/>
+      <c r="AS221" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU221">
@@ -17614,13 +17646,13 @@
       <c r="T222" s="50"/>
       <c r="U222" s="51"/>
       <c r="V222" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W222" s="52"/>
       <c r="X222" s="52"/>
       <c r="Z222" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD222">
@@ -17657,8 +17689,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS222">
-        <f t="shared" si="23"/>
+      <c r="AS222" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU222">
@@ -17684,13 +17716,13 @@
       <c r="T223" s="50"/>
       <c r="U223" s="51"/>
       <c r="V223" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W223" s="52"/>
       <c r="X223" s="52"/>
       <c r="Z223" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD223">
@@ -17727,8 +17759,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS223">
-        <f t="shared" si="23"/>
+      <c r="AS223" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU223">
@@ -17754,13 +17786,13 @@
       <c r="T224" s="50"/>
       <c r="U224" s="51"/>
       <c r="V224" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W224" s="52"/>
       <c r="X224" s="52"/>
       <c r="Z224" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD224">
@@ -17797,8 +17829,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS224">
-        <f t="shared" si="23"/>
+      <c r="AS224" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU224">
@@ -17824,13 +17856,13 @@
       <c r="T225" s="50"/>
       <c r="U225" s="51"/>
       <c r="V225" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W225" s="52"/>
       <c r="X225" s="52"/>
       <c r="Z225" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD225">
@@ -17867,8 +17899,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS225">
-        <f t="shared" si="23"/>
+      <c r="AS225" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU225">
@@ -17894,13 +17926,13 @@
       <c r="T226" s="50"/>
       <c r="U226" s="51"/>
       <c r="V226" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W226" s="52"/>
       <c r="X226" s="52"/>
       <c r="Z226" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD226">
@@ -17937,8 +17969,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS226">
-        <f t="shared" si="23"/>
+      <c r="AS226" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU226">
@@ -17964,13 +17996,13 @@
       <c r="T227" s="50"/>
       <c r="U227" s="51"/>
       <c r="V227" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W227" s="52"/>
       <c r="X227" s="52"/>
       <c r="Z227" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD227">
@@ -18007,8 +18039,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS227">
-        <f t="shared" si="23"/>
+      <c r="AS227" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU227">
@@ -18034,13 +18066,13 @@
       <c r="T228" s="50"/>
       <c r="U228" s="51"/>
       <c r="V228" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W228" s="52"/>
       <c r="X228" s="52"/>
       <c r="Z228" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD228">
@@ -18077,8 +18109,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS228">
-        <f t="shared" si="23"/>
+      <c r="AS228" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU228">
@@ -18104,13 +18136,13 @@
       <c r="T229" s="50"/>
       <c r="U229" s="51"/>
       <c r="V229" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W229" s="52"/>
       <c r="X229" s="52"/>
       <c r="Z229" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD229">
@@ -18147,8 +18179,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS229">
-        <f t="shared" si="23"/>
+      <c r="AS229" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU229">
@@ -18174,13 +18206,13 @@
       <c r="T230" s="50"/>
       <c r="U230" s="51"/>
       <c r="V230" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W230" s="52"/>
       <c r="X230" s="52"/>
       <c r="Z230" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD230">
@@ -18217,8 +18249,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS230">
-        <f t="shared" si="23"/>
+      <c r="AS230" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU230">
@@ -18244,13 +18276,13 @@
       <c r="T231" s="50"/>
       <c r="U231" s="51"/>
       <c r="V231" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W231" s="52"/>
       <c r="X231" s="52"/>
       <c r="Z231" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD231">
@@ -18287,8 +18319,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS231">
-        <f t="shared" si="23"/>
+      <c r="AS231" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU231">
@@ -18314,13 +18346,13 @@
       <c r="T232" s="50"/>
       <c r="U232" s="51"/>
       <c r="V232" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W232" s="52"/>
       <c r="X232" s="52"/>
       <c r="Z232" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD232">
@@ -18357,8 +18389,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS232">
-        <f t="shared" si="23"/>
+      <c r="AS232" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU232">
@@ -18384,13 +18416,13 @@
       <c r="T233" s="50"/>
       <c r="U233" s="51"/>
       <c r="V233" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W233" s="52"/>
       <c r="X233" s="52"/>
       <c r="Z233" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD233">
@@ -18427,8 +18459,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS233">
-        <f t="shared" si="23"/>
+      <c r="AS233" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU233">
@@ -18454,13 +18486,13 @@
       <c r="T234" s="50"/>
       <c r="U234" s="51"/>
       <c r="V234" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W234" s="52"/>
       <c r="X234" s="52"/>
       <c r="Z234" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD234">
@@ -18497,8 +18529,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS234">
-        <f t="shared" si="23"/>
+      <c r="AS234" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU234">
@@ -18524,13 +18556,13 @@
       <c r="T235" s="50"/>
       <c r="U235" s="51"/>
       <c r="V235" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W235" s="52"/>
       <c r="X235" s="52"/>
       <c r="Z235" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD235">
@@ -18567,8 +18599,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS235">
-        <f t="shared" si="23"/>
+      <c r="AS235" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU235">
@@ -18594,13 +18626,13 @@
       <c r="T236" s="50"/>
       <c r="U236" s="51"/>
       <c r="V236" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W236" s="52"/>
       <c r="X236" s="52"/>
       <c r="Z236" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD236">
@@ -18637,8 +18669,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS236">
-        <f t="shared" si="23"/>
+      <c r="AS236" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU236">
@@ -18664,13 +18696,13 @@
       <c r="T237" s="50"/>
       <c r="U237" s="51"/>
       <c r="V237" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W237" s="52"/>
       <c r="X237" s="52"/>
       <c r="Z237" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD237">
@@ -18707,8 +18739,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS237">
-        <f t="shared" si="23"/>
+      <c r="AS237" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU237">
@@ -18734,13 +18766,13 @@
       <c r="T238" s="50"/>
       <c r="U238" s="51"/>
       <c r="V238" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W238" s="52"/>
       <c r="X238" s="52"/>
       <c r="Z238" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD238">
@@ -18777,8 +18809,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS238">
-        <f t="shared" si="23"/>
+      <c r="AS238" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU238">
@@ -18804,13 +18836,13 @@
       <c r="T239" s="50"/>
       <c r="U239" s="51"/>
       <c r="V239" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W239" s="52"/>
       <c r="X239" s="52"/>
       <c r="Z239" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD239">
@@ -18847,8 +18879,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS239">
-        <f t="shared" si="23"/>
+      <c r="AS239" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU239">
@@ -18874,13 +18906,13 @@
       <c r="T240" s="50"/>
       <c r="U240" s="51"/>
       <c r="V240" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W240" s="52"/>
       <c r="X240" s="52"/>
       <c r="Z240" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD240">
@@ -18917,8 +18949,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS240">
-        <f t="shared" si="23"/>
+      <c r="AS240" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU240">
@@ -18944,13 +18976,13 @@
       <c r="T241" s="50"/>
       <c r="U241" s="51"/>
       <c r="V241" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W241" s="52"/>
       <c r="X241" s="52"/>
       <c r="Z241" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD241">
@@ -18987,8 +19019,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS241">
-        <f t="shared" si="23"/>
+      <c r="AS241" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU241">
@@ -19014,13 +19046,13 @@
       <c r="T242" s="50"/>
       <c r="U242" s="51"/>
       <c r="V242" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W242" s="52"/>
       <c r="X242" s="52"/>
       <c r="Z242" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD242">
@@ -19057,8 +19089,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS242">
-        <f t="shared" si="23"/>
+      <c r="AS242" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU242">
@@ -19084,13 +19116,13 @@
       <c r="T243" s="50"/>
       <c r="U243" s="51"/>
       <c r="V243" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W243" s="52"/>
       <c r="X243" s="52"/>
       <c r="Z243" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD243">
@@ -19127,8 +19159,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS243">
-        <f t="shared" si="23"/>
+      <c r="AS243" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU243">
@@ -19154,13 +19186,13 @@
       <c r="T244" s="50"/>
       <c r="U244" s="51"/>
       <c r="V244" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W244" s="52"/>
       <c r="X244" s="52"/>
       <c r="Z244" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD244">
@@ -19197,8 +19229,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS244">
-        <f t="shared" si="23"/>
+      <c r="AS244" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU244">
@@ -19224,13 +19256,13 @@
       <c r="T245" s="50"/>
       <c r="U245" s="51"/>
       <c r="V245" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W245" s="52"/>
       <c r="X245" s="52"/>
       <c r="Z245" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD245">
@@ -19267,8 +19299,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS245">
-        <f t="shared" si="23"/>
+      <c r="AS245" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU245">
@@ -19294,13 +19326,13 @@
       <c r="T246" s="50"/>
       <c r="U246" s="51"/>
       <c r="V246" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W246" s="52"/>
       <c r="X246" s="52"/>
       <c r="Z246" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD246">
@@ -19337,8 +19369,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS246">
-        <f t="shared" si="23"/>
+      <c r="AS246" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU246">
@@ -19364,13 +19396,13 @@
       <c r="T247" s="50"/>
       <c r="U247" s="51"/>
       <c r="V247" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W247" s="52"/>
       <c r="X247" s="52"/>
       <c r="Z247" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD247">
@@ -19407,8 +19439,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS247">
-        <f t="shared" si="23"/>
+      <c r="AS247" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU247">
@@ -19434,13 +19466,13 @@
       <c r="T248" s="50"/>
       <c r="U248" s="51"/>
       <c r="V248" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W248" s="52"/>
       <c r="X248" s="52"/>
       <c r="Z248" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD248">
@@ -19477,8 +19509,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS248">
-        <f t="shared" si="23"/>
+      <c r="AS248" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU248">
@@ -19504,13 +19536,13 @@
       <c r="T249" s="50"/>
       <c r="U249" s="51"/>
       <c r="V249" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W249" s="52"/>
       <c r="X249" s="52"/>
       <c r="Z249" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD249">
@@ -19547,8 +19579,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS249">
-        <f t="shared" si="23"/>
+      <c r="AS249" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU249">
@@ -19574,13 +19606,13 @@
       <c r="T250" s="50"/>
       <c r="U250" s="51"/>
       <c r="V250" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W250" s="52"/>
       <c r="X250" s="52"/>
       <c r="Z250" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD250">
@@ -19617,8 +19649,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS250">
-        <f t="shared" si="23"/>
+      <c r="AS250" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU250">
@@ -19644,13 +19676,13 @@
       <c r="T251" s="50"/>
       <c r="U251" s="51"/>
       <c r="V251" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W251" s="52"/>
       <c r="X251" s="52"/>
       <c r="Z251" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD251">
@@ -19687,8 +19719,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS251">
-        <f t="shared" si="23"/>
+      <c r="AS251" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU251">
@@ -19714,13 +19746,13 @@
       <c r="T252" s="50"/>
       <c r="U252" s="51"/>
       <c r="V252" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W252" s="52"/>
       <c r="X252" s="52"/>
       <c r="Z252" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD252">
@@ -19757,8 +19789,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS252">
-        <f t="shared" si="23"/>
+      <c r="AS252" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU252">
@@ -19784,13 +19816,13 @@
       <c r="T253" s="50"/>
       <c r="U253" s="51"/>
       <c r="V253" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W253" s="52"/>
       <c r="X253" s="52"/>
       <c r="Z253" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD253">
@@ -19827,8 +19859,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS253">
-        <f t="shared" si="23"/>
+      <c r="AS253" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU253">
@@ -19854,13 +19886,13 @@
       <c r="T254" s="50"/>
       <c r="U254" s="51"/>
       <c r="V254" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W254" s="52"/>
       <c r="X254" s="52"/>
       <c r="Z254" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD254">
@@ -19897,8 +19929,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS254">
-        <f t="shared" si="23"/>
+      <c r="AS254" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU254">
@@ -19924,13 +19956,13 @@
       <c r="T255" s="50"/>
       <c r="U255" s="51"/>
       <c r="V255" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W255" s="52"/>
       <c r="X255" s="52"/>
       <c r="Z255" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD255">
@@ -19967,8 +19999,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS255">
-        <f t="shared" si="23"/>
+      <c r="AS255" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU255">
@@ -19994,13 +20026,13 @@
       <c r="T256" s="50"/>
       <c r="U256" s="51"/>
       <c r="V256" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W256" s="52"/>
       <c r="X256" s="52"/>
       <c r="Z256" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD256">
@@ -20037,8 +20069,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS256">
-        <f t="shared" si="23"/>
+      <c r="AS256" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU256">
@@ -20064,13 +20096,13 @@
       <c r="T257" s="50"/>
       <c r="U257" s="51"/>
       <c r="V257" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W257" s="52"/>
       <c r="X257" s="52"/>
       <c r="Z257" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD257">
@@ -20107,8 +20139,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS257">
-        <f t="shared" si="23"/>
+      <c r="AS257" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU257">
@@ -20134,13 +20166,13 @@
       <c r="T258" s="50"/>
       <c r="U258" s="51"/>
       <c r="V258" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W258" s="52"/>
       <c r="X258" s="52"/>
       <c r="Z258" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD258">
@@ -20177,8 +20209,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS258">
-        <f t="shared" si="23"/>
+      <c r="AS258" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU258">
@@ -20204,13 +20236,13 @@
       <c r="T259" s="50"/>
       <c r="U259" s="51"/>
       <c r="V259" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W259" s="52"/>
       <c r="X259" s="52"/>
       <c r="Z259" s="53">
-        <f t="shared" ref="Z259:Z322" si="24">SUM(AA259,AD259,AE259,AF259,AG259,AH259,AI259,AJ259,AK259,AL259,AM259,AN259)</f>
+        <f t="shared" ref="Z259:Z322" si="23">SUM(AA259,AD259,AE259,AF259,AG259,AH259,AI259,AJ259,AK259,AL259,AM259,AN259)</f>
         <v>0</v>
       </c>
       <c r="AD259">
@@ -20247,8 +20279,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS259">
-        <f t="shared" si="23"/>
+      <c r="AS259" s="59">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU259">
@@ -20274,13 +20306,13 @@
       <c r="T260" s="50"/>
       <c r="U260" s="51"/>
       <c r="V260" s="43">
-        <f t="shared" ref="V260:V323" si="25">(SUM(W260,X260))-Z260</f>
+        <f t="shared" ref="V260:V323" si="24">(SUM(W260,X260))-Z260</f>
         <v>0</v>
       </c>
       <c r="W260" s="52"/>
       <c r="X260" s="52"/>
       <c r="Z260" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD260">
@@ -20317,8 +20349,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS260">
-        <f t="shared" si="23"/>
+      <c r="AS260" s="59">
+        <f t="shared" ref="AS260:AS323" si="25">(AP260*6)+(AQ260*8)+(AR260*5)</f>
         <v>0</v>
       </c>
       <c r="AU260">
@@ -20344,13 +20376,13 @@
       <c r="T261" s="50"/>
       <c r="U261" s="51"/>
       <c r="V261" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W261" s="52"/>
       <c r="X261" s="52"/>
       <c r="Z261" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD261">
@@ -20387,8 +20419,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS261">
-        <f t="shared" si="23"/>
+      <c r="AS261" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU261">
@@ -20414,13 +20446,13 @@
       <c r="T262" s="50"/>
       <c r="U262" s="51"/>
       <c r="V262" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W262" s="52"/>
       <c r="X262" s="52"/>
       <c r="Z262" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD262">
@@ -20457,8 +20489,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS262">
-        <f t="shared" si="23"/>
+      <c r="AS262" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU262">
@@ -20484,13 +20516,13 @@
       <c r="T263" s="50"/>
       <c r="U263" s="51"/>
       <c r="V263" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W263" s="52"/>
       <c r="X263" s="52"/>
       <c r="Z263" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD263">
@@ -20527,8 +20559,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS263">
-        <f t="shared" si="23"/>
+      <c r="AS263" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU263">
@@ -20554,13 +20586,13 @@
       <c r="T264" s="50"/>
       <c r="U264" s="51"/>
       <c r="V264" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W264" s="52"/>
       <c r="X264" s="52"/>
       <c r="Z264" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD264">
@@ -20597,8 +20629,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS264">
-        <f t="shared" si="23"/>
+      <c r="AS264" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU264">
@@ -20624,13 +20656,13 @@
       <c r="T265" s="50"/>
       <c r="U265" s="51"/>
       <c r="V265" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W265" s="52"/>
       <c r="X265" s="52"/>
       <c r="Z265" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD265">
@@ -20667,8 +20699,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS265">
-        <f t="shared" si="23"/>
+      <c r="AS265" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU265">
@@ -20694,13 +20726,13 @@
       <c r="T266" s="50"/>
       <c r="U266" s="51"/>
       <c r="V266" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W266" s="52"/>
       <c r="X266" s="52"/>
       <c r="Z266" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD266">
@@ -20737,8 +20769,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS266">
-        <f t="shared" si="23"/>
+      <c r="AS266" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU266">
@@ -20764,13 +20796,13 @@
       <c r="T267" s="50"/>
       <c r="U267" s="51"/>
       <c r="V267" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W267" s="52"/>
       <c r="X267" s="52"/>
       <c r="Z267" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD267">
@@ -20807,8 +20839,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS267">
-        <f t="shared" si="23"/>
+      <c r="AS267" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU267">
@@ -20834,13 +20866,13 @@
       <c r="T268" s="50"/>
       <c r="U268" s="51"/>
       <c r="V268" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W268" s="52"/>
       <c r="X268" s="52"/>
       <c r="Z268" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD268">
@@ -20877,8 +20909,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS268">
-        <f t="shared" si="23"/>
+      <c r="AS268" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU268">
@@ -20904,13 +20936,13 @@
       <c r="T269" s="50"/>
       <c r="U269" s="51"/>
       <c r="V269" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W269" s="52"/>
       <c r="X269" s="52"/>
       <c r="Z269" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD269">
@@ -20947,8 +20979,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS269">
-        <f t="shared" si="23"/>
+      <c r="AS269" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU269">
@@ -20974,13 +21006,13 @@
       <c r="T270" s="50"/>
       <c r="U270" s="51"/>
       <c r="V270" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W270" s="52"/>
       <c r="X270" s="52"/>
       <c r="Z270" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD270">
@@ -21017,8 +21049,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS270">
-        <f t="shared" si="23"/>
+      <c r="AS270" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU270">
@@ -21044,13 +21076,13 @@
       <c r="T271" s="50"/>
       <c r="U271" s="51"/>
       <c r="V271" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W271" s="52"/>
       <c r="X271" s="52"/>
       <c r="Z271" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD271">
@@ -21087,8 +21119,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS271">
-        <f t="shared" si="23"/>
+      <c r="AS271" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU271">
@@ -21114,13 +21146,13 @@
       <c r="T272" s="50"/>
       <c r="U272" s="51"/>
       <c r="V272" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W272" s="52"/>
       <c r="X272" s="52"/>
       <c r="Z272" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD272">
@@ -21157,8 +21189,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS272">
-        <f t="shared" si="23"/>
+      <c r="AS272" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU272">
@@ -21184,13 +21216,13 @@
       <c r="T273" s="50"/>
       <c r="U273" s="51"/>
       <c r="V273" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W273" s="52"/>
       <c r="X273" s="52"/>
       <c r="Z273" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD273">
@@ -21227,8 +21259,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS273">
-        <f t="shared" si="23"/>
+      <c r="AS273" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU273">
@@ -21254,13 +21286,13 @@
       <c r="T274" s="50"/>
       <c r="U274" s="51"/>
       <c r="V274" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W274" s="52"/>
       <c r="X274" s="52"/>
       <c r="Z274" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD274">
@@ -21297,8 +21329,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS274">
-        <f t="shared" si="23"/>
+      <c r="AS274" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU274">
@@ -21324,13 +21356,13 @@
       <c r="T275" s="50"/>
       <c r="U275" s="51"/>
       <c r="V275" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W275" s="52"/>
       <c r="X275" s="52"/>
       <c r="Z275" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD275">
@@ -21367,8 +21399,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS275">
-        <f t="shared" si="23"/>
+      <c r="AS275" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU275">
@@ -21394,13 +21426,13 @@
       <c r="T276" s="50"/>
       <c r="U276" s="51"/>
       <c r="V276" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W276" s="52"/>
       <c r="X276" s="52"/>
       <c r="Z276" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD276">
@@ -21437,8 +21469,8 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AS276">
-        <f t="shared" si="23"/>
+      <c r="AS276" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU276">
@@ -21464,13 +21496,13 @@
       <c r="T277" s="50"/>
       <c r="U277" s="51"/>
       <c r="V277" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W277" s="52"/>
       <c r="X277" s="52"/>
       <c r="Z277" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD277">
@@ -21507,8 +21539,8 @@
         <f t="shared" ref="AN277:AN340" si="27">SUM(AO277,AV277,AU277)</f>
         <v>0</v>
       </c>
-      <c r="AS277">
-        <f t="shared" si="23"/>
+      <c r="AS277" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU277">
@@ -21534,13 +21566,13 @@
       <c r="T278" s="50"/>
       <c r="U278" s="51"/>
       <c r="V278" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W278" s="52"/>
       <c r="X278" s="52"/>
       <c r="Z278" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD278">
@@ -21577,8 +21609,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS278">
-        <f t="shared" ref="AS278:AS341" si="28">(AP278*6)+(AQ278*8)+(AR278*5)</f>
+      <c r="AS278" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU278">
@@ -21604,13 +21636,13 @@
       <c r="T279" s="50"/>
       <c r="U279" s="51"/>
       <c r="V279" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W279" s="52"/>
       <c r="X279" s="52"/>
       <c r="Z279" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD279">
@@ -21647,8 +21679,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS279">
-        <f t="shared" si="28"/>
+      <c r="AS279" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU279">
@@ -21674,13 +21706,13 @@
       <c r="T280" s="50"/>
       <c r="U280" s="51"/>
       <c r="V280" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W280" s="52"/>
       <c r="X280" s="52"/>
       <c r="Z280" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD280">
@@ -21717,8 +21749,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS280">
-        <f t="shared" si="28"/>
+      <c r="AS280" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU280">
@@ -21744,13 +21776,13 @@
       <c r="T281" s="50"/>
       <c r="U281" s="51"/>
       <c r="V281" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W281" s="52"/>
       <c r="X281" s="52"/>
       <c r="Z281" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD281">
@@ -21787,8 +21819,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS281">
-        <f t="shared" si="28"/>
+      <c r="AS281" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU281">
@@ -21814,13 +21846,13 @@
       <c r="T282" s="50"/>
       <c r="U282" s="51"/>
       <c r="V282" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W282" s="52"/>
       <c r="X282" s="52"/>
       <c r="Z282" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD282">
@@ -21857,8 +21889,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS282">
-        <f t="shared" si="28"/>
+      <c r="AS282" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU282">
@@ -21884,13 +21916,13 @@
       <c r="T283" s="50"/>
       <c r="U283" s="51"/>
       <c r="V283" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W283" s="52"/>
       <c r="X283" s="52"/>
       <c r="Z283" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD283">
@@ -21927,8 +21959,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS283">
-        <f t="shared" si="28"/>
+      <c r="AS283" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU283">
@@ -21954,13 +21986,13 @@
       <c r="T284" s="50"/>
       <c r="U284" s="51"/>
       <c r="V284" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W284" s="52"/>
       <c r="X284" s="52"/>
       <c r="Z284" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD284">
@@ -21997,8 +22029,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS284">
-        <f t="shared" si="28"/>
+      <c r="AS284" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU284">
@@ -22024,13 +22056,13 @@
       <c r="T285" s="50"/>
       <c r="U285" s="51"/>
       <c r="V285" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W285" s="52"/>
       <c r="X285" s="52"/>
       <c r="Z285" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD285">
@@ -22067,8 +22099,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS285">
-        <f t="shared" si="28"/>
+      <c r="AS285" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU285">
@@ -22094,13 +22126,13 @@
       <c r="T286" s="50"/>
       <c r="U286" s="51"/>
       <c r="V286" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W286" s="52"/>
       <c r="X286" s="52"/>
       <c r="Z286" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD286">
@@ -22137,8 +22169,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS286">
-        <f t="shared" si="28"/>
+      <c r="AS286" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU286">
@@ -22164,13 +22196,13 @@
       <c r="T287" s="50"/>
       <c r="U287" s="51"/>
       <c r="V287" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W287" s="52"/>
       <c r="X287" s="52"/>
       <c r="Z287" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD287">
@@ -22207,8 +22239,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS287">
-        <f t="shared" si="28"/>
+      <c r="AS287" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU287">
@@ -22234,13 +22266,13 @@
       <c r="T288" s="50"/>
       <c r="U288" s="51"/>
       <c r="V288" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W288" s="52"/>
       <c r="X288" s="52"/>
       <c r="Z288" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD288">
@@ -22277,8 +22309,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS288">
-        <f t="shared" si="28"/>
+      <c r="AS288" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU288">
@@ -22304,13 +22336,13 @@
       <c r="T289" s="50"/>
       <c r="U289" s="51"/>
       <c r="V289" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W289" s="52"/>
       <c r="X289" s="52"/>
       <c r="Z289" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD289">
@@ -22347,8 +22379,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS289">
-        <f t="shared" si="28"/>
+      <c r="AS289" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU289">
@@ -22374,13 +22406,13 @@
       <c r="T290" s="50"/>
       <c r="U290" s="51"/>
       <c r="V290" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W290" s="52"/>
       <c r="X290" s="52"/>
       <c r="Z290" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD290">
@@ -22417,8 +22449,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS290">
-        <f t="shared" si="28"/>
+      <c r="AS290" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU290">
@@ -22444,13 +22476,13 @@
       <c r="T291" s="50"/>
       <c r="U291" s="51"/>
       <c r="V291" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W291" s="52"/>
       <c r="X291" s="52"/>
       <c r="Z291" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD291">
@@ -22487,8 +22519,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS291">
-        <f t="shared" si="28"/>
+      <c r="AS291" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU291">
@@ -22514,13 +22546,13 @@
       <c r="T292" s="50"/>
       <c r="U292" s="51"/>
       <c r="V292" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W292" s="52"/>
       <c r="X292" s="52"/>
       <c r="Z292" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD292">
@@ -22557,8 +22589,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS292">
-        <f t="shared" si="28"/>
+      <c r="AS292" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU292">
@@ -22584,13 +22616,13 @@
       <c r="T293" s="50"/>
       <c r="U293" s="51"/>
       <c r="V293" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W293" s="52"/>
       <c r="X293" s="52"/>
       <c r="Z293" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD293">
@@ -22627,8 +22659,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS293">
-        <f t="shared" si="28"/>
+      <c r="AS293" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU293">
@@ -22654,13 +22686,13 @@
       <c r="T294" s="50"/>
       <c r="U294" s="51"/>
       <c r="V294" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W294" s="52"/>
       <c r="X294" s="52"/>
       <c r="Z294" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD294">
@@ -22697,8 +22729,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS294">
-        <f t="shared" si="28"/>
+      <c r="AS294" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU294">
@@ -22724,13 +22756,13 @@
       <c r="T295" s="50"/>
       <c r="U295" s="51"/>
       <c r="V295" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W295" s="52"/>
       <c r="X295" s="52"/>
       <c r="Z295" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD295">
@@ -22767,8 +22799,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS295">
-        <f t="shared" si="28"/>
+      <c r="AS295" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU295">
@@ -22794,13 +22826,13 @@
       <c r="T296" s="50"/>
       <c r="U296" s="51"/>
       <c r="V296" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W296" s="52"/>
       <c r="X296" s="52"/>
       <c r="Z296" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD296">
@@ -22837,8 +22869,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS296">
-        <f t="shared" si="28"/>
+      <c r="AS296" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU296">
@@ -22864,13 +22896,13 @@
       <c r="T297" s="50"/>
       <c r="U297" s="51"/>
       <c r="V297" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W297" s="52"/>
       <c r="X297" s="52"/>
       <c r="Z297" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD297">
@@ -22907,8 +22939,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS297">
-        <f t="shared" si="28"/>
+      <c r="AS297" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU297">
@@ -22934,13 +22966,13 @@
       <c r="T298" s="50"/>
       <c r="U298" s="51"/>
       <c r="V298" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W298" s="52"/>
       <c r="X298" s="52"/>
       <c r="Z298" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD298">
@@ -22977,8 +23009,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS298">
-        <f t="shared" si="28"/>
+      <c r="AS298" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU298">
@@ -23004,13 +23036,13 @@
       <c r="T299" s="50"/>
       <c r="U299" s="51"/>
       <c r="V299" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W299" s="52"/>
       <c r="X299" s="52"/>
       <c r="Z299" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD299">
@@ -23047,8 +23079,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS299">
-        <f t="shared" si="28"/>
+      <c r="AS299" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU299">
@@ -23074,13 +23106,13 @@
       <c r="T300" s="50"/>
       <c r="U300" s="51"/>
       <c r="V300" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W300" s="52"/>
       <c r="X300" s="52"/>
       <c r="Z300" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD300">
@@ -23117,8 +23149,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS300">
-        <f t="shared" si="28"/>
+      <c r="AS300" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU300">
@@ -23144,13 +23176,13 @@
       <c r="T301" s="50"/>
       <c r="U301" s="51"/>
       <c r="V301" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W301" s="52"/>
       <c r="X301" s="52"/>
       <c r="Z301" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD301">
@@ -23187,8 +23219,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS301">
-        <f t="shared" si="28"/>
+      <c r="AS301" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU301">
@@ -23214,13 +23246,13 @@
       <c r="T302" s="50"/>
       <c r="U302" s="51"/>
       <c r="V302" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W302" s="52"/>
       <c r="X302" s="52"/>
       <c r="Z302" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD302">
@@ -23257,8 +23289,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS302">
-        <f t="shared" si="28"/>
+      <c r="AS302" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU302">
@@ -23284,13 +23316,13 @@
       <c r="T303" s="50"/>
       <c r="U303" s="51"/>
       <c r="V303" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W303" s="52"/>
       <c r="X303" s="52"/>
       <c r="Z303" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD303">
@@ -23327,8 +23359,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS303">
-        <f t="shared" si="28"/>
+      <c r="AS303" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU303">
@@ -23354,13 +23386,13 @@
       <c r="T304" s="50"/>
       <c r="U304" s="51"/>
       <c r="V304" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W304" s="52"/>
       <c r="X304" s="52"/>
       <c r="Z304" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD304">
@@ -23397,8 +23429,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS304">
-        <f t="shared" si="28"/>
+      <c r="AS304" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU304">
@@ -23424,13 +23456,13 @@
       <c r="T305" s="50"/>
       <c r="U305" s="51"/>
       <c r="V305" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W305" s="52"/>
       <c r="X305" s="52"/>
       <c r="Z305" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD305">
@@ -23467,8 +23499,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS305">
-        <f t="shared" si="28"/>
+      <c r="AS305" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU305">
@@ -23494,13 +23526,13 @@
       <c r="T306" s="50"/>
       <c r="U306" s="51"/>
       <c r="V306" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W306" s="52"/>
       <c r="X306" s="52"/>
       <c r="Z306" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD306">
@@ -23537,8 +23569,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS306">
-        <f t="shared" si="28"/>
+      <c r="AS306" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU306">
@@ -23564,13 +23596,13 @@
       <c r="T307" s="50"/>
       <c r="U307" s="51"/>
       <c r="V307" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W307" s="52"/>
       <c r="X307" s="52"/>
       <c r="Z307" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD307">
@@ -23607,8 +23639,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS307">
-        <f t="shared" si="28"/>
+      <c r="AS307" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU307">
@@ -23634,13 +23666,13 @@
       <c r="T308" s="50"/>
       <c r="U308" s="51"/>
       <c r="V308" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W308" s="52"/>
       <c r="X308" s="52"/>
       <c r="Z308" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD308">
@@ -23677,8 +23709,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS308">
-        <f t="shared" si="28"/>
+      <c r="AS308" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU308">
@@ -23704,13 +23736,13 @@
       <c r="T309" s="50"/>
       <c r="U309" s="51"/>
       <c r="V309" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W309" s="52"/>
       <c r="X309" s="52"/>
       <c r="Z309" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD309">
@@ -23747,8 +23779,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS309">
-        <f t="shared" si="28"/>
+      <c r="AS309" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU309">
@@ -23774,13 +23806,13 @@
       <c r="T310" s="50"/>
       <c r="U310" s="51"/>
       <c r="V310" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W310" s="52"/>
       <c r="X310" s="52"/>
       <c r="Z310" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD310">
@@ -23817,8 +23849,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS310">
-        <f t="shared" si="28"/>
+      <c r="AS310" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU310">
@@ -23844,13 +23876,13 @@
       <c r="T311" s="50"/>
       <c r="U311" s="51"/>
       <c r="V311" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W311" s="52"/>
       <c r="X311" s="52"/>
       <c r="Z311" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD311">
@@ -23887,8 +23919,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS311">
-        <f t="shared" si="28"/>
+      <c r="AS311" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU311">
@@ -23914,13 +23946,13 @@
       <c r="T312" s="50"/>
       <c r="U312" s="51"/>
       <c r="V312" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W312" s="52"/>
       <c r="X312" s="52"/>
       <c r="Z312" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD312">
@@ -23957,8 +23989,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS312">
-        <f t="shared" si="28"/>
+      <c r="AS312" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU312">
@@ -23984,13 +24016,13 @@
       <c r="T313" s="50"/>
       <c r="U313" s="51"/>
       <c r="V313" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W313" s="52"/>
       <c r="X313" s="52"/>
       <c r="Z313" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD313">
@@ -24027,8 +24059,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS313">
-        <f t="shared" si="28"/>
+      <c r="AS313" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU313">
@@ -24054,13 +24086,13 @@
       <c r="T314" s="50"/>
       <c r="U314" s="51"/>
       <c r="V314" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W314" s="52"/>
       <c r="X314" s="52"/>
       <c r="Z314" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD314">
@@ -24097,8 +24129,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS314">
-        <f t="shared" si="28"/>
+      <c r="AS314" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU314">
@@ -24124,13 +24156,13 @@
       <c r="T315" s="50"/>
       <c r="U315" s="51"/>
       <c r="V315" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W315" s="52"/>
       <c r="X315" s="52"/>
       <c r="Z315" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD315">
@@ -24167,8 +24199,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS315">
-        <f t="shared" si="28"/>
+      <c r="AS315" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU315">
@@ -24194,13 +24226,13 @@
       <c r="T316" s="50"/>
       <c r="U316" s="51"/>
       <c r="V316" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W316" s="52"/>
       <c r="X316" s="52"/>
       <c r="Z316" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD316">
@@ -24237,8 +24269,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS316">
-        <f t="shared" si="28"/>
+      <c r="AS316" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU316">
@@ -24264,13 +24296,13 @@
       <c r="T317" s="50"/>
       <c r="U317" s="51"/>
       <c r="V317" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W317" s="52"/>
       <c r="X317" s="52"/>
       <c r="Z317" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD317">
@@ -24307,8 +24339,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS317">
-        <f t="shared" si="28"/>
+      <c r="AS317" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU317">
@@ -24334,13 +24366,13 @@
       <c r="T318" s="50"/>
       <c r="U318" s="51"/>
       <c r="V318" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W318" s="52"/>
       <c r="X318" s="52"/>
       <c r="Z318" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD318">
@@ -24377,8 +24409,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS318">
-        <f t="shared" si="28"/>
+      <c r="AS318" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU318">
@@ -24403,13 +24435,13 @@
       <c r="T319" s="50"/>
       <c r="U319" s="51"/>
       <c r="V319" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W319" s="52"/>
       <c r="X319" s="52"/>
       <c r="Z319" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD319">
@@ -24446,8 +24478,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS319">
-        <f t="shared" si="28"/>
+      <c r="AS319" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU319">
@@ -24472,13 +24504,13 @@
       <c r="T320" s="50"/>
       <c r="U320" s="51"/>
       <c r="V320" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W320" s="52"/>
       <c r="X320" s="52"/>
       <c r="Z320" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD320">
@@ -24515,8 +24547,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS320">
-        <f t="shared" si="28"/>
+      <c r="AS320" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU320">
@@ -24541,13 +24573,13 @@
       <c r="T321" s="50"/>
       <c r="U321" s="51"/>
       <c r="V321" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W321" s="52"/>
       <c r="X321" s="52"/>
       <c r="Z321" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD321">
@@ -24584,8 +24616,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS321">
-        <f t="shared" si="28"/>
+      <c r="AS321" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU321">
@@ -24610,13 +24642,13 @@
       <c r="T322" s="50"/>
       <c r="U322" s="51"/>
       <c r="V322" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W322" s="52"/>
       <c r="X322" s="52"/>
       <c r="Z322" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD322">
@@ -24653,8 +24685,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS322">
-        <f t="shared" si="28"/>
+      <c r="AS322" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU322">
@@ -24679,13 +24711,13 @@
       <c r="T323" s="50"/>
       <c r="U323" s="51"/>
       <c r="V323" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W323" s="52"/>
       <c r="X323" s="52"/>
       <c r="Z323" s="53">
-        <f t="shared" ref="Z323:Z386" si="29">SUM(AA323,AD323,AE323,AF323,AG323,AH323,AI323,AJ323,AK323,AL323,AM323,AN323)</f>
+        <f t="shared" ref="Z323:Z386" si="28">SUM(AA323,AD323,AE323,AF323,AG323,AH323,AI323,AJ323,AK323,AL323,AM323,AN323)</f>
         <v>0</v>
       </c>
       <c r="AD323">
@@ -24722,8 +24754,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS323">
-        <f t="shared" si="28"/>
+      <c r="AS323" s="59">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU323">
@@ -24748,13 +24780,13 @@
       <c r="T324" s="50"/>
       <c r="U324" s="51"/>
       <c r="V324" s="43">
-        <f t="shared" ref="V324:V387" si="30">(SUM(W324,X324))-Z324</f>
+        <f t="shared" ref="V324:V387" si="29">(SUM(W324,X324))-Z324</f>
         <v>0</v>
       </c>
       <c r="W324" s="52"/>
       <c r="X324" s="52"/>
       <c r="Z324" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD324">
@@ -24791,8 +24823,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS324">
-        <f t="shared" si="28"/>
+      <c r="AS324" s="59">
+        <f t="shared" ref="AS324:AS354" si="30">(AP324*6)+(AQ324*8)+(AR324*5)</f>
         <v>0</v>
       </c>
       <c r="AU324">
@@ -24817,13 +24849,13 @@
       <c r="T325" s="50"/>
       <c r="U325" s="51"/>
       <c r="V325" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W325" s="52"/>
       <c r="X325" s="52"/>
       <c r="Z325" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD325">
@@ -24860,8 +24892,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS325">
-        <f t="shared" si="28"/>
+      <c r="AS325" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU325">
@@ -24886,13 +24918,13 @@
       <c r="T326" s="50"/>
       <c r="U326" s="51"/>
       <c r="V326" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W326" s="52"/>
       <c r="X326" s="52"/>
       <c r="Z326" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD326">
@@ -24929,8 +24961,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS326">
-        <f t="shared" si="28"/>
+      <c r="AS326" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU326">
@@ -24955,13 +24987,13 @@
       <c r="T327" s="50"/>
       <c r="U327" s="51"/>
       <c r="V327" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W327" s="52"/>
       <c r="X327" s="52"/>
       <c r="Z327" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD327">
@@ -24998,8 +25030,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS327">
-        <f t="shared" si="28"/>
+      <c r="AS327" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU327">
@@ -25024,13 +25056,13 @@
       <c r="T328" s="50"/>
       <c r="U328" s="51"/>
       <c r="V328" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W328" s="52"/>
       <c r="X328" s="52"/>
       <c r="Z328" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD328">
@@ -25067,8 +25099,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS328">
-        <f t="shared" si="28"/>
+      <c r="AS328" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU328">
@@ -25093,13 +25125,13 @@
       <c r="T329" s="50"/>
       <c r="U329" s="51"/>
       <c r="V329" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W329" s="52"/>
       <c r="X329" s="52"/>
       <c r="Z329" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD329">
@@ -25136,8 +25168,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS329">
-        <f t="shared" si="28"/>
+      <c r="AS329" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU329">
@@ -25162,13 +25194,13 @@
       <c r="T330" s="50"/>
       <c r="U330" s="51"/>
       <c r="V330" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W330" s="52"/>
       <c r="X330" s="52"/>
       <c r="Z330" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD330">
@@ -25205,8 +25237,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS330">
-        <f t="shared" si="28"/>
+      <c r="AS330" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU330">
@@ -25231,13 +25263,13 @@
       <c r="T331" s="50"/>
       <c r="U331" s="51"/>
       <c r="V331" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W331" s="52"/>
       <c r="X331" s="52"/>
       <c r="Z331" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD331">
@@ -25274,8 +25306,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS331">
-        <f t="shared" si="28"/>
+      <c r="AS331" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU331">
@@ -25300,13 +25332,13 @@
       <c r="T332" s="50"/>
       <c r="U332" s="51"/>
       <c r="V332" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W332" s="52"/>
       <c r="X332" s="52"/>
       <c r="Z332" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD332">
@@ -25343,8 +25375,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS332">
-        <f t="shared" si="28"/>
+      <c r="AS332" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU332">
@@ -25369,13 +25401,13 @@
       <c r="T333" s="50"/>
       <c r="U333" s="51"/>
       <c r="V333" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W333" s="52"/>
       <c r="X333" s="52"/>
       <c r="Z333" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD333">
@@ -25412,8 +25444,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS333">
-        <f t="shared" si="28"/>
+      <c r="AS333" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU333">
@@ -25438,13 +25470,13 @@
       <c r="T334" s="50"/>
       <c r="U334" s="51"/>
       <c r="V334" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W334" s="52"/>
       <c r="X334" s="52"/>
       <c r="Z334" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD334">
@@ -25481,8 +25513,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS334">
-        <f t="shared" si="28"/>
+      <c r="AS334" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU334">
@@ -25507,13 +25539,13 @@
       <c r="T335" s="50"/>
       <c r="U335" s="51"/>
       <c r="V335" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W335" s="52"/>
       <c r="X335" s="52"/>
       <c r="Z335" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD335">
@@ -25550,8 +25582,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS335">
-        <f t="shared" si="28"/>
+      <c r="AS335" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU335">
@@ -25576,13 +25608,13 @@
       <c r="T336" s="50"/>
       <c r="U336" s="51"/>
       <c r="V336" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W336" s="52"/>
       <c r="X336" s="52"/>
       <c r="Z336" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD336">
@@ -25619,8 +25651,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS336">
-        <f t="shared" si="28"/>
+      <c r="AS336" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU336">
@@ -25645,13 +25677,13 @@
       <c r="T337" s="50"/>
       <c r="U337" s="51"/>
       <c r="V337" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W337" s="52"/>
       <c r="X337" s="52"/>
       <c r="Z337" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD337">
@@ -25688,8 +25720,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS337">
-        <f t="shared" si="28"/>
+      <c r="AS337" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU337">
@@ -25714,13 +25746,13 @@
       <c r="T338" s="50"/>
       <c r="U338" s="51"/>
       <c r="V338" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W338" s="52"/>
       <c r="X338" s="52"/>
       <c r="Z338" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD338">
@@ -25757,8 +25789,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS338">
-        <f t="shared" si="28"/>
+      <c r="AS338" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU338">
@@ -25783,13 +25815,13 @@
       <c r="T339" s="50"/>
       <c r="U339" s="51"/>
       <c r="V339" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W339" s="52"/>
       <c r="X339" s="52"/>
       <c r="Z339" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD339">
@@ -25826,8 +25858,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS339">
-        <f t="shared" si="28"/>
+      <c r="AS339" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU339">
@@ -25852,13 +25884,13 @@
       <c r="T340" s="50"/>
       <c r="U340" s="51"/>
       <c r="V340" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W340" s="52"/>
       <c r="X340" s="52"/>
       <c r="Z340" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD340">
@@ -25895,8 +25927,8 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS340">
-        <f t="shared" si="28"/>
+      <c r="AS340" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU340">
@@ -25921,13 +25953,13 @@
       <c r="T341" s="50"/>
       <c r="U341" s="51"/>
       <c r="V341" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W341" s="52"/>
       <c r="X341" s="52"/>
       <c r="Z341" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD341">
@@ -25964,8 +25996,8 @@
         <f t="shared" ref="AN341:AN404" si="32">SUM(AO341,AV341,AU341)</f>
         <v>0</v>
       </c>
-      <c r="AS341">
-        <f t="shared" si="28"/>
+      <c r="AS341" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU341">
@@ -25990,13 +26022,13 @@
       <c r="T342" s="50"/>
       <c r="U342" s="51"/>
       <c r="V342" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W342" s="52"/>
       <c r="X342" s="52"/>
       <c r="Z342" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD342">
@@ -26033,8 +26065,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS342">
-        <f t="shared" ref="AS342:AS405" si="33">(AP342*6)+(AQ342*8)+(AR342*5)</f>
+      <c r="AS342" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU342">
@@ -26059,13 +26091,13 @@
       <c r="T343" s="50"/>
       <c r="U343" s="51"/>
       <c r="V343" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W343" s="52"/>
       <c r="X343" s="52"/>
       <c r="Z343" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD343">
@@ -26102,8 +26134,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS343">
-        <f t="shared" si="33"/>
+      <c r="AS343" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU343">
@@ -26128,13 +26160,13 @@
       <c r="T344" s="50"/>
       <c r="U344" s="51"/>
       <c r="V344" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W344" s="52"/>
       <c r="X344" s="52"/>
       <c r="Z344" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD344">
@@ -26171,8 +26203,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS344">
-        <f t="shared" si="33"/>
+      <c r="AS344" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU344">
@@ -26197,13 +26229,13 @@
       <c r="T345" s="50"/>
       <c r="U345" s="51"/>
       <c r="V345" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W345" s="52"/>
       <c r="X345" s="52"/>
       <c r="Z345" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD345">
@@ -26240,8 +26272,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS345">
-        <f t="shared" si="33"/>
+      <c r="AS345" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU345">
@@ -26266,13 +26298,13 @@
       <c r="T346" s="50"/>
       <c r="U346" s="51"/>
       <c r="V346" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W346" s="52"/>
       <c r="X346" s="52"/>
       <c r="Z346" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD346">
@@ -26309,8 +26341,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS346">
-        <f t="shared" si="33"/>
+      <c r="AS346" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU346">
@@ -26335,13 +26367,13 @@
       <c r="T347" s="50"/>
       <c r="U347" s="51"/>
       <c r="V347" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W347" s="52"/>
       <c r="X347" s="52"/>
       <c r="Z347" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD347">
@@ -26378,8 +26410,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS347">
-        <f t="shared" si="33"/>
+      <c r="AS347" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU347">
@@ -26404,13 +26436,13 @@
       <c r="T348" s="50"/>
       <c r="U348" s="51"/>
       <c r="V348" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W348" s="52"/>
       <c r="X348" s="52"/>
       <c r="Z348" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD348">
@@ -26447,8 +26479,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS348">
-        <f t="shared" si="33"/>
+      <c r="AS348" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU348">
@@ -26473,13 +26505,13 @@
       <c r="T349" s="50"/>
       <c r="U349" s="51"/>
       <c r="V349" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W349" s="52"/>
       <c r="X349" s="52"/>
       <c r="Z349" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD349">
@@ -26516,8 +26548,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS349">
-        <f t="shared" si="33"/>
+      <c r="AS349" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU349">
@@ -26542,13 +26574,13 @@
       <c r="T350" s="50"/>
       <c r="U350" s="51"/>
       <c r="V350" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W350" s="52"/>
       <c r="X350" s="52"/>
       <c r="Z350" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD350">
@@ -26585,8 +26617,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS350">
-        <f t="shared" si="33"/>
+      <c r="AS350" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU350">
@@ -26611,13 +26643,13 @@
       <c r="T351" s="50"/>
       <c r="U351" s="51"/>
       <c r="V351" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W351" s="52"/>
       <c r="X351" s="52"/>
       <c r="Z351" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD351">
@@ -26654,8 +26686,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS351">
-        <f t="shared" si="33"/>
+      <c r="AS351" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU351">
@@ -26680,13 +26712,13 @@
       <c r="T352" s="50"/>
       <c r="U352" s="51"/>
       <c r="V352" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W352" s="52"/>
       <c r="X352" s="52"/>
       <c r="Z352" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD352">
@@ -26723,8 +26755,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS352">
-        <f t="shared" si="33"/>
+      <c r="AS352" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU352">
@@ -26749,13 +26781,13 @@
       <c r="T353" s="50"/>
       <c r="U353" s="51"/>
       <c r="V353" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W353" s="52"/>
       <c r="X353" s="52"/>
       <c r="Z353" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD353">
@@ -26792,8 +26824,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS353">
-        <f t="shared" si="33"/>
+      <c r="AS353" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU353">
@@ -26818,13 +26850,13 @@
       <c r="T354" s="50"/>
       <c r="U354" s="51"/>
       <c r="V354" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W354" s="52"/>
       <c r="X354" s="52"/>
       <c r="Z354" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD354">
@@ -26861,8 +26893,8 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AS354">
-        <f t="shared" si="33"/>
+      <c r="AS354" s="59">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU354">
@@ -26887,13 +26919,13 @@
       <c r="T355" s="50"/>
       <c r="U355" s="51"/>
       <c r="V355" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W355" s="52"/>
       <c r="X355" s="52"/>
       <c r="Z355" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD355">
@@ -26931,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="AS355">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AS342:AS405" si="33">(AP355*6)+(AQ355*8)+(AR355*5)</f>
         <v>0</v>
       </c>
       <c r="AU355">
@@ -26956,13 +26988,13 @@
       <c r="T356" s="50"/>
       <c r="U356" s="51"/>
       <c r="V356" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W356" s="52"/>
       <c r="X356" s="52"/>
       <c r="Z356" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD356">
@@ -27025,13 +27057,13 @@
       <c r="T357" s="50"/>
       <c r="U357" s="51"/>
       <c r="V357" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W357" s="52"/>
       <c r="X357" s="52"/>
       <c r="Z357" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD357">
@@ -27094,13 +27126,13 @@
       <c r="T358" s="50"/>
       <c r="U358" s="51"/>
       <c r="V358" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W358" s="52"/>
       <c r="X358" s="52"/>
       <c r="Z358" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD358">
@@ -27163,13 +27195,13 @@
       <c r="T359" s="50"/>
       <c r="U359" s="51"/>
       <c r="V359" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W359" s="52"/>
       <c r="X359" s="52"/>
       <c r="Z359" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD359">
@@ -27232,13 +27264,13 @@
       <c r="T360" s="50"/>
       <c r="U360" s="51"/>
       <c r="V360" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W360" s="52"/>
       <c r="X360" s="52"/>
       <c r="Z360" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD360">
@@ -27301,13 +27333,13 @@
       <c r="T361" s="50"/>
       <c r="U361" s="51"/>
       <c r="V361" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W361" s="52"/>
       <c r="X361" s="52"/>
       <c r="Z361" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD361">
@@ -27370,13 +27402,13 @@
       <c r="T362" s="50"/>
       <c r="U362" s="51"/>
       <c r="V362" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W362" s="52"/>
       <c r="X362" s="52"/>
       <c r="Z362" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD362">
@@ -27439,13 +27471,13 @@
       <c r="T363" s="50"/>
       <c r="U363" s="51"/>
       <c r="V363" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W363" s="52"/>
       <c r="X363" s="52"/>
       <c r="Z363" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD363">
@@ -27508,13 +27540,13 @@
       <c r="T364" s="50"/>
       <c r="U364" s="51"/>
       <c r="V364" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W364" s="52"/>
       <c r="X364" s="52"/>
       <c r="Z364" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD364">
@@ -27577,13 +27609,13 @@
       <c r="T365" s="50"/>
       <c r="U365" s="51"/>
       <c r="V365" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W365" s="52"/>
       <c r="X365" s="52"/>
       <c r="Z365" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD365">
@@ -27646,13 +27678,13 @@
       <c r="T366" s="50"/>
       <c r="U366" s="51"/>
       <c r="V366" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W366" s="52"/>
       <c r="X366" s="52"/>
       <c r="Z366" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD366">
@@ -27715,13 +27747,13 @@
       <c r="T367" s="50"/>
       <c r="U367" s="51"/>
       <c r="V367" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W367" s="52"/>
       <c r="X367" s="52"/>
       <c r="Z367" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD367">
@@ -27784,13 +27816,13 @@
       <c r="T368" s="50"/>
       <c r="U368" s="51"/>
       <c r="V368" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W368" s="52"/>
       <c r="X368" s="52"/>
       <c r="Z368" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD368">
@@ -27853,13 +27885,13 @@
       <c r="T369" s="50"/>
       <c r="U369" s="51"/>
       <c r="V369" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W369" s="52"/>
       <c r="X369" s="52"/>
       <c r="Z369" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD369">
@@ -27922,13 +27954,13 @@
       <c r="T370" s="50"/>
       <c r="U370" s="51"/>
       <c r="V370" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W370" s="52"/>
       <c r="X370" s="52"/>
       <c r="Z370" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD370">
@@ -27991,13 +28023,13 @@
       <c r="T371" s="50"/>
       <c r="U371" s="51"/>
       <c r="V371" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W371" s="52"/>
       <c r="X371" s="52"/>
       <c r="Z371" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD371">
@@ -28060,13 +28092,13 @@
       <c r="T372" s="50"/>
       <c r="U372" s="51"/>
       <c r="V372" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W372" s="52"/>
       <c r="X372" s="52"/>
       <c r="Z372" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD372">
@@ -28129,13 +28161,13 @@
       <c r="T373" s="50"/>
       <c r="U373" s="51"/>
       <c r="V373" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W373" s="52"/>
       <c r="X373" s="52"/>
       <c r="Z373" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD373">
@@ -28198,13 +28230,13 @@
       <c r="T374" s="50"/>
       <c r="U374" s="51"/>
       <c r="V374" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W374" s="52"/>
       <c r="X374" s="52"/>
       <c r="Z374" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD374">
@@ -28267,13 +28299,13 @@
       <c r="T375" s="50"/>
       <c r="U375" s="51"/>
       <c r="V375" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W375" s="52"/>
       <c r="X375" s="52"/>
       <c r="Z375" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD375">
@@ -28333,13 +28365,13 @@
       <c r="T376" s="50"/>
       <c r="U376" s="51"/>
       <c r="V376" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W376" s="52"/>
       <c r="X376" s="52"/>
       <c r="Z376" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD376">
@@ -28399,13 +28431,13 @@
       <c r="T377" s="50"/>
       <c r="U377" s="51"/>
       <c r="V377" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W377" s="52"/>
       <c r="X377" s="52"/>
       <c r="Z377" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD377">
@@ -28465,13 +28497,13 @@
       <c r="T378" s="50"/>
       <c r="U378" s="51"/>
       <c r="V378" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W378" s="52"/>
       <c r="X378" s="52"/>
       <c r="Z378" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD378">
@@ -28531,13 +28563,13 @@
       <c r="T379" s="50"/>
       <c r="U379" s="51"/>
       <c r="V379" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W379" s="52"/>
       <c r="X379" s="52"/>
       <c r="Z379" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD379">
@@ -28597,13 +28629,13 @@
       <c r="T380" s="50"/>
       <c r="U380" s="51"/>
       <c r="V380" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W380" s="52"/>
       <c r="X380" s="52"/>
       <c r="Z380" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD380">
@@ -28663,13 +28695,13 @@
       <c r="T381" s="50"/>
       <c r="U381" s="51"/>
       <c r="V381" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W381" s="52"/>
       <c r="X381" s="52"/>
       <c r="Z381" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD381">
@@ -28729,13 +28761,13 @@
       <c r="T382" s="50"/>
       <c r="U382" s="51"/>
       <c r="V382" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W382" s="52"/>
       <c r="X382" s="52"/>
       <c r="Z382" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD382">
@@ -28795,13 +28827,13 @@
       <c r="T383" s="50"/>
       <c r="U383" s="51"/>
       <c r="V383" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W383" s="52"/>
       <c r="X383" s="52"/>
       <c r="Z383" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD383">
@@ -28861,13 +28893,13 @@
       <c r="T384" s="50"/>
       <c r="U384" s="51"/>
       <c r="V384" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W384" s="52"/>
       <c r="X384" s="52"/>
       <c r="Z384" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD384">
@@ -28927,13 +28959,13 @@
       <c r="T385" s="50"/>
       <c r="U385" s="51"/>
       <c r="V385" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W385" s="52"/>
       <c r="X385" s="52"/>
       <c r="Z385" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD385">
@@ -28993,13 +29025,13 @@
       <c r="T386" s="50"/>
       <c r="U386" s="51"/>
       <c r="V386" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W386" s="52"/>
       <c r="X386" s="52"/>
       <c r="Z386" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD386">
@@ -29059,7 +29091,7 @@
       <c r="T387" s="50"/>
       <c r="U387" s="51"/>
       <c r="V387" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W387" s="52"/>

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AV6" sqref="AV6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="V6" s="43">
         <f t="shared" si="2"/>
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="W6" s="52">
         <v>75</v>
@@ -1681,7 +1681,7 @@
       <c r="X6" s="52"/>
       <c r="Z6" s="53">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA6" s="59">
         <v>60</v>
@@ -1702,7 +1702,7 @@
       <c r="AM6" s="59"/>
       <c r="AN6">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO6">
         <v>20</v>
@@ -1714,11 +1714,11 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS6" s="59">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AT6" s="59">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="78">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX6" s="74"/>
       <c r="AY6" s="64"/>
@@ -1752,15 +1752,19 @@
       <c r="U7" s="51"/>
       <c r="V7" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="52"/>
+        <v>5</v>
+      </c>
+      <c r="W7" s="52">
+        <v>75</v>
+      </c>
       <c r="X7" s="52"/>
       <c r="Z7" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="59"/>
+        <v>70</v>
+      </c>
+      <c r="AA7" s="59">
+        <v>70</v>
+      </c>
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
       <c r="AD7" s="59"/>
@@ -26963,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="AS355">
-        <f t="shared" ref="AS342:AS405" si="33">(AP355*6)+(AQ355*8)+(AR355*5)</f>
+        <f t="shared" ref="AS355:AS405" si="33">(AP355*6)+(AQ355*8)+(AR355*5)</f>
         <v>0</v>
       </c>
       <c r="AU355">

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -391,12 +391,33 @@
   <si>
     <t>???????</t>
   </si>
+  <si>
+    <t>Deposito!</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Sra Lety</t>
+  </si>
+  <si>
+    <t>Ingles (27 mar - 6 abril)</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Dia Rojo Feliz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +569,15 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -853,9 +883,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,6 +896,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFF00FF"/>
+      <color rgb="FF33CC33"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFF9797"/>
@@ -872,7 +904,6 @@
       <color rgb="FFF6F7C9"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FF86F577"/>
-      <color rgb="FF33CC33"/>
       <color rgb="FF99FF66"/>
     </mruColors>
   </colors>
@@ -1152,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,11 +1267,11 @@
       </c>
       <c r="E2" s="98">
         <f>L3-C2</f>
-        <v>-5351.09</v>
+        <v>-3660.09</v>
       </c>
       <c r="F2" s="99">
         <f>L3-D2</f>
-        <v>-166.09000000000015</v>
+        <v>1524.9099999999999</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1367,7 +1398,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(D2,(E11:E501),(K11:K497)))-(SUM((D11:D501),(C11:C501)))</f>
-        <v>4350.91</v>
+        <v>6041.91</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1470,7 +1501,7 @@
       </c>
       <c r="N4" s="83">
         <f>L3+L9</f>
-        <v>28509.91</v>
+        <v>30200.91</v>
       </c>
       <c r="S4" s="49">
         <v>42827</v>
@@ -1658,7 +1689,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>527.5</v>
+        <v>120.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -1817,21 +1848,33 @@
       <c r="T8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="U8" s="51"/>
+      <c r="U8" s="51" t="s">
+        <v>128</v>
+      </c>
       <c r="V8" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="52"/>
+        <v>-7</v>
+      </c>
+      <c r="W8" s="52">
+        <v>75</v>
+      </c>
       <c r="X8" s="71"/>
       <c r="Z8" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
+        <v>82</v>
+      </c>
+      <c r="AA8" s="59">
+        <v>70</v>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC8" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD8" s="59">
+        <v>12</v>
+      </c>
       <c r="AE8" s="59"/>
       <c r="AF8" s="59"/>
       <c r="AG8" s="59"/>
@@ -2205,10 +2248,18 @@
         <f t="shared" si="5"/>
         <v>2500</v>
       </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="39"/>
+      <c r="N12" s="60">
+        <v>42831</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>850</v>
+      </c>
       <c r="S12" s="49">
         <v>42835</v>
       </c>
@@ -2366,11 +2417,17 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="60">
+        <v>42831</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>122</v>
+      </c>
       <c r="C14" s="88"/>
       <c r="D14" s="86"/>
-      <c r="E14" s="89"/>
+      <c r="E14" s="89">
+        <v>1250</v>
+      </c>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
       <c r="H14" s="59" t="s">
@@ -2455,11 +2512,15 @@
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="89"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94">
+        <v>-441</v>
+      </c>
+      <c r="E15" s="94"/>
       <c r="F15" s="90"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59" t="s">

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -407,10 +402,19 @@
     <t>CUC</t>
   </si>
   <si>
-    <t>Agua</t>
+    <t>Noche improvisada con Jaime</t>
   </si>
   <si>
-    <t>Dia Rojo Feliz</t>
+    <t>Combi a Coyuya</t>
+  </si>
+  <si>
+    <t>Sra Araceli me obequio para la combi</t>
+  </si>
+  <si>
+    <t>Agua; Pizza; CocaCola</t>
+  </si>
+  <si>
+    <t>Twist</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1177,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1579,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1689,7 +1693,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>120.5</v>
+        <v>42</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -1780,25 +1784,38 @@
       <c r="T7" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="U7" s="51"/>
+      <c r="U7" s="51" t="s">
+        <v>128</v>
+      </c>
       <c r="V7" s="43">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>-34.5</v>
       </c>
       <c r="W7" s="52">
         <v>75</v>
       </c>
-      <c r="X7" s="52"/>
+      <c r="X7" s="52">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>129</v>
+      </c>
       <c r="Z7" s="53">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>139.5</v>
       </c>
       <c r="AA7" s="59">
         <v>70</v>
       </c>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
+      <c r="AB7" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC7" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD7" s="59">
+        <v>10</v>
+      </c>
       <c r="AE7" s="59"/>
       <c r="AF7" s="59"/>
       <c r="AG7" s="59"/>
@@ -1810,23 +1827,23 @@
       <c r="AM7" s="59"/>
       <c r="AN7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59.5</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS7" s="59">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT7" s="59">
         <v>0</v>
@@ -1836,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="78">
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
@@ -1849,11 +1866,11 @@
         <v>57</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V8" s="43">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>-46</v>
       </c>
       <c r="W8" s="52">
         <v>75</v>
@@ -1861,7 +1878,7 @@
       <c r="X8" s="71"/>
       <c r="Z8" s="53">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AA8" s="59">
         <v>70</v>
@@ -1870,13 +1887,17 @@
         <v>126</v>
       </c>
       <c r="AC8" s="59" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AD8" s="59">
         <v>12</v>
       </c>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
+      <c r="AE8" s="59">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="59">
+        <v>11</v>
+      </c>
       <c r="AG8" s="59"/>
       <c r="AH8" s="59"/>
       <c r="AI8" s="59"/>
@@ -1886,33 +1907,33 @@
       <c r="AM8" s="59"/>
       <c r="AN8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS8" s="59">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AT8" s="59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV8" s="78">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -412,6 +412,9 @@
   <si>
     <t>Dia Rojo Feliz</t>
   </si>
+  <si>
+    <t>Reembolso Uber</t>
+  </si>
 </sst>
 </file>
 
@@ -735,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -887,6 +890,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,11 +1271,11 @@
       </c>
       <c r="E2" s="98">
         <f>L3-C2</f>
-        <v>-3660.09</v>
+        <v>-3627.37</v>
       </c>
       <c r="F2" s="99">
         <f>L3-D2</f>
-        <v>1524.9099999999999</v>
+        <v>1557.63</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1398,7 +1402,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(D2,(E11:E501),(K11:K497)))-(SUM((D11:D501),(C11:C501)))</f>
-        <v>6041.91</v>
+        <v>6074.63</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1501,7 +1505,7 @@
       </c>
       <c r="N4" s="83">
         <f>L3+L9</f>
-        <v>30200.91</v>
+        <v>30233.63</v>
       </c>
       <c r="S4" s="49">
         <v>42827</v>
@@ -1689,7 +1693,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>120.5</v>
+        <v>87.779999999999973</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2605,11 +2609,17 @@
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="60">
+        <v>42832</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>129</v>
+      </c>
       <c r="C16" s="88"/>
       <c r="D16" s="86"/>
-      <c r="E16" s="89"/>
+      <c r="E16" s="101">
+        <v>32.72</v>
+      </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59" t="s">

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:BE964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,6 +1224,7 @@
       <c r="F1" s="85" t="s">
         <v>104</v>
       </c>
+      <c r="J1" s="40"/>
       <c r="P1" s="73"/>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -415,6 +420,18 @@
   </si>
   <si>
     <t>Twist</t>
+  </si>
+  <si>
+    <t>Borderlands 1 FINISH</t>
+  </si>
+  <si>
+    <t>Nachos; Platanitos</t>
+  </si>
+  <si>
+    <t>Regreso LAB</t>
+  </si>
+  <si>
+    <t>Agua</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1187,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1471,7 @@
       <c r="AL3" s="59"/>
       <c r="AM3" s="59"/>
       <c r="AN3">
-        <f t="shared" ref="AN3:AN19" si="1">SUM(AO3,AV3,AU3)</f>
+        <f t="shared" ref="AN3:AN20" si="1">SUM(AO3,AV3,AU3)</f>
         <v>20</v>
       </c>
       <c r="AO3">
@@ -1694,7 +1711,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2840,22 +2857,34 @@
       <c r="T18" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="U18" s="51"/>
+      <c r="U18" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="V18" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="52"/>
+        <v>84</v>
+      </c>
+      <c r="W18" s="52">
+        <v>120</v>
+      </c>
       <c r="X18" s="52"/>
       <c r="Z18" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="59"/>
+        <v>36</v>
+      </c>
+      <c r="AA18" s="59">
+        <v>0</v>
+      </c>
       <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
+      <c r="AC18" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD18" s="59">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="59">
+        <v>12</v>
+      </c>
       <c r="AF18" s="59"/>
       <c r="AG18" s="59"/>
       <c r="AH18" s="59"/>
@@ -2866,7 +2895,7 @@
       <c r="AM18" s="59"/>
       <c r="AN18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -2885,11 +2914,11 @@
         <v>0</v>
       </c>
       <c r="AT18" s="59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU18" s="59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV18" s="96">
         <v>0</v>
@@ -2929,21 +2958,29 @@
       <c r="T19" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="U19" s="51"/>
+      <c r="U19" s="69" t="s">
+        <v>134</v>
+      </c>
       <c r="V19" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="52"/>
+        <v>103</v>
+      </c>
+      <c r="W19" s="52">
+        <v>125</v>
+      </c>
       <c r="X19" s="52"/>
       <c r="Z19" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA19" s="59"/>
       <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
+      <c r="AC19" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD19" s="59">
+        <v>12</v>
+      </c>
       <c r="AE19" s="59"/>
       <c r="AF19" s="59"/>
       <c r="AG19" s="59"/>
@@ -2955,7 +2992,7 @@
       <c r="AM19" s="59"/>
       <c r="AN19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -2981,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA19" s="40"/>
     </row>
@@ -3022,13 +3059,13 @@
       <c r="U20" s="51"/>
       <c r="V20" s="43">
         <f t="shared" si="2"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="W20" s="52"/>
       <c r="X20" s="52"/>
       <c r="Z20" s="53">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="59"/>
       <c r="AB20" s="59"/>
@@ -3044,7 +3081,8 @@
       <c r="AL20" s="59"/>
       <c r="AM20" s="59"/>
       <c r="AN20">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AO20">
         <v>0</v>

--- a/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
+++ b/Finanzas/2_Abril_Mayo_Junio_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -431,7 +431,10 @@
     <t>Regreso LAB</t>
   </si>
   <si>
-    <t>Agua</t>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Agua; Papas; Chocolate</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AN21" sqref="AN21"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1714,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2963,26 +2966,37 @@
       </c>
       <c r="V19" s="43">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="W19" s="52">
         <v>125</v>
       </c>
-      <c r="X19" s="52"/>
+      <c r="X19" s="52">
+        <v>55</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>135</v>
+      </c>
       <c r="Z19" s="53">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AA19" s="59"/>
+        <v>139</v>
+      </c>
+      <c r="AA19" s="59">
+        <v>95</v>
+      </c>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD19" s="59">
         <v>12</v>
       </c>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
+      <c r="AE19" s="59">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="59">
+        <v>4</v>
+      </c>
       <c r="AG19" s="59"/>
       <c r="AH19" s="59"/>
       <c r="AI19" s="59"/>
@@ -2992,7 +3006,7 @@
       <c r="AM19" s="59"/>
       <c r="AN19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -3018,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="96">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA19" s="40"/>
     </row>
